--- a/NformTester/NformTester/keywordscripts/TestScripts.xlsx
+++ b/NformTester/NformTester/keywordscripts/TestScripts.xlsx
@@ -1259,7 +1259,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7655" uniqueCount="881">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7662" uniqueCount="885">
   <si>
     <t>FormLogin_to_LiebertR_Nform</t>
   </si>
@@ -3964,6 +3964,21 @@
   </si>
   <si>
     <t>10.146.87.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CopyDataToFile</t>
+  </si>
+  <si>
+    <t>C:\Nform\user\CopyData.txt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"C:/Nform/user/CopyData.txt"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UPS_10.146.83.20</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4158,7 +4173,21 @@
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="1"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="4">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -4463,10 +4492,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N50"/>
+  <dimension ref="A1:N51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I31" sqref="I31"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4680,7 +4709,7 @@
         <v>803</v>
       </c>
       <c r="B7" s="5">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C7" s="3">
         <v>6</v>
@@ -5283,19 +5312,15 @@
         <v>836</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>802</v>
+        <v>881</v>
       </c>
       <c r="F27" s="3"/>
       <c r="G27" s="3"/>
       <c r="H27" s="3" t="s">
-        <v>880</v>
-      </c>
-      <c r="I27" s="3">
-        <v>1</v>
-      </c>
-      <c r="J27" s="3" t="s">
-        <v>879</v>
-      </c>
+        <v>882</v>
+      </c>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
       <c r="K27" s="3"/>
       <c r="L27" s="3"/>
       <c r="M27" s="3"/>
@@ -5307,12 +5332,20 @@
       <c r="C28" s="3">
         <v>27</v>
       </c>
-      <c r="D28" s="14"/>
-      <c r="E28" s="3"/>
+      <c r="D28" s="14" t="s">
+        <v>836</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>840</v>
+      </c>
       <c r="F28" s="3"/>
       <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
+      <c r="H28" s="3" t="s">
+        <v>883</v>
+      </c>
+      <c r="I28" s="3" t="s">
+        <v>884</v>
+      </c>
       <c r="J28" s="3"/>
       <c r="K28" s="3"/>
       <c r="L28" s="3"/>
@@ -5325,13 +5358,23 @@
       <c r="C29" s="3">
         <v>28</v>
       </c>
-      <c r="D29" s="14"/>
-      <c r="E29" s="3"/>
+      <c r="D29" s="14" t="s">
+        <v>836</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>802</v>
+      </c>
       <c r="F29" s="3"/>
       <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
-      <c r="J29" s="3"/>
+      <c r="H29" s="3" t="s">
+        <v>880</v>
+      </c>
+      <c r="I29" s="3">
+        <v>1</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>879</v>
+      </c>
       <c r="K29" s="3"/>
       <c r="L29" s="3"/>
       <c r="M29" s="3"/>
@@ -5592,7 +5635,9 @@
     <row r="44" spans="1:14">
       <c r="A44" s="18"/>
       <c r="B44" s="18"/>
-      <c r="C44" s="13"/>
+      <c r="C44" s="3">
+        <v>43</v>
+      </c>
       <c r="D44" s="14"/>
       <c r="E44" s="3"/>
       <c r="F44" s="3"/>
@@ -5606,7 +5651,11 @@
       <c r="N44" s="4"/>
     </row>
     <row r="45" spans="1:14">
-      <c r="C45" s="13"/>
+      <c r="A45" s="18"/>
+      <c r="B45" s="18"/>
+      <c r="C45" s="3">
+        <v>44</v>
+      </c>
       <c r="D45" s="14"/>
       <c r="E45" s="3"/>
       <c r="F45" s="3"/>
@@ -5620,7 +5669,9 @@
       <c r="N45" s="4"/>
     </row>
     <row r="46" spans="1:14">
-      <c r="C46" s="13"/>
+      <c r="C46" s="3">
+        <v>45</v>
+      </c>
       <c r="D46" s="14"/>
       <c r="E46" s="3"/>
       <c r="F46" s="3"/>
@@ -5634,7 +5685,9 @@
       <c r="N46" s="4"/>
     </row>
     <row r="47" spans="1:14">
-      <c r="C47" s="13"/>
+      <c r="C47" s="3">
+        <v>46</v>
+      </c>
       <c r="D47" s="14"/>
       <c r="E47" s="3"/>
       <c r="F47" s="3"/>
@@ -5648,37 +5701,61 @@
       <c r="N47" s="4"/>
     </row>
     <row r="48" spans="1:14">
-      <c r="C48" s="13"/>
+      <c r="C48" s="3">
+        <v>47</v>
+      </c>
       <c r="D48" s="14"/>
       <c r="E48" s="3"/>
       <c r="F48" s="3"/>
       <c r="G48" s="3"/>
       <c r="H48" s="3"/>
       <c r="I48" s="3"/>
-      <c r="J48" s="13"/>
-      <c r="K48" s="13"/>
-      <c r="L48" s="13"/>
-      <c r="M48" s="13"/>
+      <c r="J48" s="3"/>
+      <c r="K48" s="3"/>
+      <c r="L48" s="3"/>
+      <c r="M48" s="3"/>
       <c r="N48" s="4"/>
     </row>
-    <row r="49" spans="4:9">
+    <row r="49" spans="3:14">
+      <c r="C49" s="3">
+        <v>48</v>
+      </c>
       <c r="D49" s="14"/>
       <c r="E49" s="3"/>
       <c r="F49" s="3"/>
       <c r="G49" s="3"/>
       <c r="H49" s="3"/>
-      <c r="I49" s="13"/>
+      <c r="I49" s="3"/>
+      <c r="J49" s="13"/>
+      <c r="K49" s="13"/>
+      <c r="L49" s="13"/>
+      <c r="M49" s="13"/>
+      <c r="N49" s="4"/>
     </row>
-    <row r="50" spans="4:9">
-      <c r="D50" s="13"/>
+    <row r="50" spans="3:14">
+      <c r="C50" s="3">
+        <v>49</v>
+      </c>
+      <c r="D50" s="14"/>
       <c r="E50" s="3"/>
       <c r="F50" s="3"/>
       <c r="G50" s="3"/>
-      <c r="H50" s="13"/>
+      <c r="H50" s="3"/>
+      <c r="I50" s="13"/>
+    </row>
+    <row r="51" spans="3:14">
+      <c r="C51" s="3">
+        <v>50</v>
+      </c>
+      <c r="D51" s="13"/>
+      <c r="E51" s="3"/>
+      <c r="F51" s="3"/>
+      <c r="G51" s="3"/>
+      <c r="H51" s="13"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="N2:N48">
+  <conditionalFormatting sqref="N2:N49">
     <cfRule type="cellIs" dxfId="1" priority="1" stopIfTrue="1" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
@@ -5687,16 +5764,16 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D20:D28">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D20:D29">
       <formula1>"C,F,T,;"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G5 G13:G15 G7:G9 G11 G20:G50">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G5 G13:G15 G7:G9 G11 G20:G51">
       <formula1>INDIRECT(SUBSTITUTE(E2&amp;F2," ",""))</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F12 F14:F15 F20:F50">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F12 F14:F15 F20:F51">
       <formula1>OFFSET(INDIRECT($E2),0,0,COUNTA(INDIRECT(E2&amp;"Col")),1)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E3 E8:E50">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E3 E8:E27 E29:E51">
       <formula1>Forms</formula1>
     </dataValidation>
   </dataValidations>

--- a/NformTester/NformTester/keywordscripts/TestScripts.xlsx
+++ b/NformTester/NformTester/keywordscripts/TestScripts.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="105" windowWidth="18195" windowHeight="9570"/>
+    <workbookView xWindow="480" yWindow="105" windowWidth="15480" windowHeight="9570"/>
   </bookViews>
   <sheets>
     <sheet name="Scripts" sheetId="3" r:id="rId1"/>
     <sheet name="Form DataValDepend" sheetId="1" r:id="rId2"/>
     <sheet name="Action DataValDepend" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="FormAbout_LiebertR_Nform">'Form DataValDepend'!$BM$1</definedName>
@@ -1254,12 +1255,12 @@
     <definedName name="VerifyTxtfileValues">'Form DataValDepend'!$CH$1</definedName>
     <definedName name="VerifyTxtfileValuesCol">'Form DataValDepend'!$CH:$CH</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7655" uniqueCount="881">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7901" uniqueCount="880">
   <si>
     <t>FormLogin_to_LiebertR_Nform</t>
   </si>
@@ -3716,273 +3717,228 @@
   </si>
   <si>
     <t>Script Info</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Script Data</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Test Object</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>C:\\Nform\\bin\\NformViewer.exe</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Author</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Peter</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Version</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.0</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Create Date</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Update Date</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Result</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>;Login.</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>;Clear operation.</t>
+  </si>
+  <si>
+    <t>"{CONTROL down}{Akey}{CONTROL up}"</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>T</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>Script Data</t>
+    <t>FormManaged_Devices</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Test Steps</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>;RT</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>FormName</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Component</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Action</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>ARG</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Result</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>F</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>"Administrator"</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>"admin"</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>Test Steps</t>
+    <t>"localhost"</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>;RT</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>FormName</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Component</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Action</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>ARG</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <t>;Add Device</t>
+  </si>
+  <si>
+    <t>SingleManual</t>
+  </si>
+  <si>
+    <t>$SNMPdevice_0$</t>
+  </si>
+  <si>
+    <t>$GXT_0_NAME$</t>
+  </si>
+  <si>
+    <t>"Description for GXT"</t>
+  </si>
+  <si>
+    <t>"Liebert GXT UPS/WebCard"</t>
+  </si>
+  <si>
+    <t>"SNMP"</t>
+  </si>
+  <si>
+    <t>T</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pause</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>VerifyTxtfileValues</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>MgdDeviceName</t>
+  </si>
+  <si>
+    <t>AlarmId</t>
+  </si>
+  <si>
+    <t>; Scenario 4</t>
+  </si>
+  <si>
+    <t>"C:\Nform\user\export\Action_Device_test.csv"</t>
+  </si>
+  <si>
+    <t>ActionSetName</t>
+  </si>
+  <si>
+    <t>ActionName</t>
+  </si>
+  <si>
+    <t>StartDttm</t>
+  </si>
+  <si>
+    <t>StatusCode</t>
   </si>
   <si>
     <t>Result</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Test Object</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>C:\\Nform\\bin\\NformViewer.exe</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>F</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>FormLogin_to_LiebertR_Nform</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"Administrator"</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"admin"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"localhost"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Author</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Peter</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>C</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Version</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.0</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VerifyTxtfileValues</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"C:/Nform/log/Server.log"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2012-06-13 16:05:12.16</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Create Date</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>2012-06-13 16:05:12.15</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Update Date</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"C:/Nform/user/export/DataLog_201206181408.csv"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> UPS_126.4.100.15</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> UPS_126.4.100.14</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Result</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>FormMain</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Configure</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DoubleClickItem</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"UPS_10.146.85.7"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Device_tree</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ClickItem</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cooling_10.146.86.3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Trends</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Show_time_range_selection</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Period</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FromDate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"2012{RIGHT}12{RIGHT}12"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FromTime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"11{RIGHT}11{RIGHT}11"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ToDate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"2000{RIGHT}11{RIGHT}11"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ToTime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"09{RIGHT}12{RIGHT}09"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MultiSearch</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>$SearchStart$</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>$SearchEnd$</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VerifyProperty</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Text</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Equal</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Liebert CRV</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Contains</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NotContains</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>abc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>$GXT_Trap$</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10.146.87.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>; Scenario 5</t>
+  </si>
+  <si>
+    <t>"C:\Nform\user\export\Action_Application_test.csv"</t>
+  </si>
+  <si>
+    <t>; Scenario 6</t>
+  </si>
+  <si>
+    <t>"C:\Nform\user\export\Action_All_test.csv"</t>
+  </si>
+  <si>
+    <t>Enabled</t>
+  </si>
+  <si>
+    <t>"action-one"</t>
+  </si>
+  <si>
+    <t>"nform testing"</t>
+  </si>
+  <si>
+    <t>"Run-command"</t>
+  </si>
+  <si>
+    <t>"text"</t>
+  </si>
+  <si>
+    <t>"2"</t>
+  </si>
+  <si>
+    <t>"C:\Nform\test.txt"</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="8">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -3990,7 +3946,42 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -4020,6 +4011,36 @@
       <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="53"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="7">
@@ -4101,64 +4122,131 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="justify" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="9" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="3" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="6" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="21" fontId="6" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+  <cellStyles count="4">
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="1"/>
+    <cellStyle name="常规 2 2" xfId="3"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="8">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -4179,7 +4267,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -4463,23 +4551,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N50"/>
+  <dimension ref="A1:O134"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I31" sqref="I31"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.75" customWidth="1"/>
-    <col min="2" max="2" width="28.375" customWidth="1"/>
-    <col min="5" max="5" width="23.125" customWidth="1"/>
-    <col min="6" max="6" width="12.625" customWidth="1"/>
-    <col min="7" max="7" width="6.125" customWidth="1"/>
-    <col min="8" max="8" width="15.375" customWidth="1"/>
+    <col min="1" max="1" width="16.7109375" style="19" customWidth="1"/>
+    <col min="2" max="2" width="28.42578125" style="19" customWidth="1"/>
+    <col min="5" max="5" width="29.7109375" customWidth="1"/>
+    <col min="6" max="6" width="29.28515625" customWidth="1"/>
+    <col min="7" max="7" width="15" customWidth="1"/>
+    <col min="8" max="8" width="34.140625" customWidth="1"/>
+    <col min="9" max="9" width="31.85546875" customWidth="1"/>
+    <col min="11" max="11" width="10.140625" customWidth="1"/>
+    <col min="12" max="12" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:15" ht="25.5">
       <c r="A1" s="1" t="s">
         <v>818</v>
       </c>
@@ -4487,48 +4578,48 @@
         <v>819</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>838</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>839</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>840</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>841</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>842</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>843</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>843</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>843</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>843</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>843</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>843</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
+      <c r="A2" s="2" t="s">
         <v>820</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="B2" s="4" t="s">
         <v>821</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>822</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>823</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>824</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>825</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>825</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>825</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>825</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>825</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>825</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>826</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14">
-      <c r="A2" s="2" t="s">
-        <v>827</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>828</v>
       </c>
       <c r="C2" s="3">
         <v>1</v>
@@ -4536,778 +4627,704 @@
       <c r="D2" s="14" t="s">
         <v>829</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>830</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>817</v>
-      </c>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
       <c r="G2" s="3"/>
-      <c r="H2" s="3" t="s">
-        <v>831</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>832</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>833</v>
-      </c>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
       <c r="M2" s="3"/>
-      <c r="N2" s="4"/>
-    </row>
-    <row r="3" spans="1:14">
+      <c r="N2" s="17"/>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="2" t="s">
-        <v>834</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>835</v>
+        <v>822</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>823</v>
       </c>
       <c r="C3" s="3">
         <v>2</v>
       </c>
-      <c r="D3" s="14" t="s">
-        <v>836</v>
+      <c r="D3" s="12" t="s">
+        <v>845</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>799</v>
-      </c>
-      <c r="F3" s="3">
-        <v>8</v>
+        <v>0</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>817</v>
       </c>
       <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
+      <c r="H3" s="3" t="s">
+        <v>846</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>847</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>848</v>
+      </c>
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
-      <c r="N3" s="4"/>
-    </row>
-    <row r="4" spans="1:14">
+      <c r="N3" s="17"/>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="2" t="s">
-        <v>837</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>838</v>
+        <v>824</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>825</v>
       </c>
       <c r="C4" s="3">
         <v>3</v>
       </c>
-      <c r="D4" s="14" t="s">
-        <v>839</v>
+      <c r="D4" s="12" t="s">
+        <v>832</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>840</v>
-      </c>
-      <c r="F4" s="3"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="3" t="s">
-        <v>841</v>
-      </c>
-      <c r="I4" s="15" t="s">
-        <v>842</v>
-      </c>
+        <v>799</v>
+      </c>
+      <c r="F4" s="3">
+        <v>60</v>
+      </c>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
       <c r="L4" s="3"/>
       <c r="M4" s="3"/>
-      <c r="N4" s="4"/>
-    </row>
-    <row r="5" spans="1:14">
+      <c r="N4" s="17"/>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="2" t="s">
-        <v>843</v>
-      </c>
-      <c r="B5" s="8">
+        <v>826</v>
+      </c>
+      <c r="B5" s="7">
         <v>40864</v>
       </c>
       <c r="C5" s="3">
         <v>4</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>839</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>840</v>
-      </c>
+        <v>849</v>
+      </c>
+      <c r="E5" s="3"/>
       <c r="F5" s="3"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="3" t="s">
-        <v>841</v>
-      </c>
-      <c r="I5" s="15" t="s">
-        <v>844</v>
-      </c>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
-      <c r="N5" s="4"/>
-    </row>
-    <row r="6" spans="1:14">
+      <c r="N5" s="17"/>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="2" t="s">
-        <v>845</v>
-      </c>
-      <c r="B6" s="8">
+        <v>827</v>
+      </c>
+      <c r="B6" s="7">
         <v>41045</v>
       </c>
       <c r="C6" s="3">
         <v>5</v>
       </c>
-      <c r="D6" s="14" t="s">
-        <v>839</v>
+      <c r="D6" s="12" t="s">
+        <v>831</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>801</v>
-      </c>
-      <c r="F6" s="3"/>
-      <c r="G6" s="6"/>
+        <v>620</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>626</v>
+      </c>
+      <c r="G6" s="3"/>
       <c r="H6" s="3" t="s">
-        <v>846</v>
+        <v>850</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>847</v>
-      </c>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
-      <c r="N6" s="4"/>
-    </row>
-    <row r="7" spans="1:14">
+        <v>851</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>852</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>853</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>854</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>855</v>
+      </c>
+      <c r="N6" s="17"/>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="2" t="s">
         <v>803</v>
       </c>
-      <c r="B7" s="5">
-        <v>26</v>
+      <c r="B7" s="4">
+        <v>65</v>
       </c>
       <c r="C7" s="3">
         <v>6</v>
       </c>
-      <c r="D7" s="14" t="s">
-        <v>839</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>801</v>
-      </c>
-      <c r="F7" s="3"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="3" t="s">
-        <v>846</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>848</v>
-      </c>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
-      <c r="N7" s="4"/>
-    </row>
-    <row r="8" spans="1:14">
+      <c r="D7" s="23" t="s">
+        <v>830</v>
+      </c>
+      <c r="E7" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="H7" s="21"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="21"/>
+      <c r="K7" s="21"/>
+      <c r="L7" s="21"/>
+      <c r="M7" s="21"/>
+      <c r="N7" s="22"/>
+      <c r="O7" s="20"/>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="2" t="s">
-        <v>849</v>
-      </c>
-      <c r="B8" s="5"/>
+        <v>828</v>
+      </c>
+      <c r="B8" s="4"/>
       <c r="C8" s="3">
         <v>7</v>
       </c>
-      <c r="D8" s="14" t="s">
-        <v>839</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>850</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>851</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
-      <c r="N8" s="4"/>
-    </row>
-    <row r="9" spans="1:14">
+      <c r="D8" s="23" t="s">
+        <v>830</v>
+      </c>
+      <c r="E8" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="G8" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="H8" s="21"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="21"/>
+      <c r="K8" s="21"/>
+      <c r="L8" s="21"/>
+      <c r="M8" s="21"/>
+      <c r="N8" s="22"/>
+      <c r="O8" s="20"/>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="2" t="s">
         <v>804</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="8" t="s">
         <v>805</v>
       </c>
       <c r="C9" s="3">
         <v>8</v>
       </c>
-      <c r="D9" s="14" t="s">
-        <v>839</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3"/>
-      <c r="N9" s="4"/>
-    </row>
-    <row r="10" spans="1:14">
-      <c r="A10" s="10"/>
-      <c r="B10" s="11"/>
+      <c r="D9" s="23" t="s">
+        <v>830</v>
+      </c>
+      <c r="E9" s="24" t="s">
+        <v>348</v>
+      </c>
+      <c r="F9" s="21" t="s">
+        <v>212</v>
+      </c>
+      <c r="G9" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="H9" s="24" t="s">
+        <v>873</v>
+      </c>
+      <c r="I9" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="J9" s="21"/>
+      <c r="K9" s="21"/>
+      <c r="L9" s="21"/>
+      <c r="M9" s="21"/>
+      <c r="N9" s="22"/>
+      <c r="O9" s="20"/>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="A10" s="9"/>
+      <c r="B10" s="10"/>
       <c r="C10" s="3">
         <v>9</v>
       </c>
-      <c r="D10" s="14" t="s">
-        <v>839</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>620</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>621</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>852</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>853</v>
-      </c>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="3"/>
-      <c r="N10" s="4"/>
-    </row>
-    <row r="11" spans="1:14">
+      <c r="D10" s="23" t="s">
+        <v>832</v>
+      </c>
+      <c r="E10" s="24" t="s">
+        <v>799</v>
+      </c>
+      <c r="F10" s="21">
+        <v>5</v>
+      </c>
+      <c r="G10" s="21"/>
+      <c r="H10" s="24"/>
+      <c r="I10" s="21"/>
+      <c r="J10" s="21"/>
+      <c r="K10" s="21"/>
+      <c r="L10" s="21"/>
+      <c r="M10" s="21"/>
+      <c r="N10" s="22"/>
+      <c r="O10" s="20"/>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="2" t="s">
         <v>806</v>
       </c>
-      <c r="B11" s="12"/>
+      <c r="B11" s="11"/>
       <c r="C11" s="3">
         <v>10</v>
       </c>
-      <c r="D11" s="14" t="s">
-        <v>839</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>850</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="G11" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
-      <c r="M11" s="3"/>
-      <c r="N11" s="4"/>
-    </row>
-    <row r="12" spans="1:14">
+      <c r="D11" s="23" t="s">
+        <v>830</v>
+      </c>
+      <c r="E11" s="24" t="s">
+        <v>348</v>
+      </c>
+      <c r="F11" s="21" t="s">
+        <v>212</v>
+      </c>
+      <c r="G11" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="H11" s="24"/>
+      <c r="I11" s="24"/>
+      <c r="J11" s="21"/>
+      <c r="K11" s="21"/>
+      <c r="L11" s="21"/>
+      <c r="M11" s="21"/>
+      <c r="N11" s="22"/>
+      <c r="O11" s="20"/>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="2" t="s">
         <v>807</v>
       </c>
-      <c r="B12" s="12"/>
+      <c r="B12" s="11"/>
       <c r="C12" s="3">
         <v>11</v>
       </c>
-      <c r="D12" s="14" t="s">
-        <v>839</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>850</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>854</v>
-      </c>
-      <c r="G12" s="6" t="s">
-        <v>855</v>
-      </c>
-      <c r="H12" s="3">
-        <v>2</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>856</v>
-      </c>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="3"/>
-      <c r="N12" s="4"/>
-    </row>
-    <row r="13" spans="1:14">
+      <c r="D12" s="23" t="s">
+        <v>830</v>
+      </c>
+      <c r="E12" s="24" t="s">
+        <v>352</v>
+      </c>
+      <c r="F12" s="21" t="s">
+        <v>222</v>
+      </c>
+      <c r="G12" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="H12" s="24" t="s">
+        <v>874</v>
+      </c>
+      <c r="I12" s="21"/>
+      <c r="J12" s="21"/>
+      <c r="K12" s="21"/>
+      <c r="L12" s="21"/>
+      <c r="M12" s="21"/>
+      <c r="N12" s="22"/>
+      <c r="O12" s="20"/>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="2" t="s">
         <v>808</v>
       </c>
-      <c r="B13" s="12"/>
+      <c r="B13" s="11"/>
       <c r="C13" s="3">
         <v>12</v>
       </c>
-      <c r="D13" s="14" t="s">
-        <v>839</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>850</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>857</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
-      <c r="M13" s="3"/>
-      <c r="N13" s="4"/>
-    </row>
-    <row r="14" spans="1:14">
+      <c r="D13" s="23" t="s">
+        <v>830</v>
+      </c>
+      <c r="E13" s="24" t="s">
+        <v>352</v>
+      </c>
+      <c r="F13" s="21" t="s">
+        <v>221</v>
+      </c>
+      <c r="G13" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="H13" s="24" t="s">
+        <v>875</v>
+      </c>
+      <c r="I13" s="21"/>
+      <c r="J13" s="21"/>
+      <c r="K13" s="21"/>
+      <c r="L13" s="21"/>
+      <c r="M13" s="21"/>
+      <c r="N13" s="22"/>
+      <c r="O13" s="20"/>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="2" t="s">
         <v>809</v>
       </c>
-      <c r="B14" s="12"/>
+      <c r="B14" s="11"/>
       <c r="C14" s="3">
         <v>13</v>
       </c>
-      <c r="D14" s="14" t="s">
-        <v>839</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>850</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>858</v>
-      </c>
-      <c r="G14" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
-      <c r="M14" s="3"/>
-      <c r="N14" s="4"/>
-    </row>
-    <row r="15" spans="1:14">
-      <c r="A15" s="2" t="s">
-        <v>810</v>
-      </c>
-      <c r="B15" s="12"/>
+      <c r="D14" s="23" t="s">
+        <v>830</v>
+      </c>
+      <c r="E14" s="24" t="s">
+        <v>352</v>
+      </c>
+      <c r="F14" s="21" t="s">
+        <v>212</v>
+      </c>
+      <c r="G14" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="H14" s="24"/>
+      <c r="I14" s="21"/>
+      <c r="J14" s="21"/>
+      <c r="K14" s="21"/>
+      <c r="L14" s="21"/>
+      <c r="M14" s="21"/>
+      <c r="N14" s="22"/>
+      <c r="O14" s="20"/>
+    </row>
+    <row r="15" spans="1:15">
+      <c r="A15" s="13"/>
+      <c r="B15" s="13"/>
       <c r="C15" s="3">
-        <v>14</v>
-      </c>
-      <c r="D15" s="14" t="s">
-        <v>839</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>850</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>859</v>
-      </c>
-      <c r="G15" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
-      <c r="M15" s="3"/>
-      <c r="N15" s="4"/>
-    </row>
-    <row r="16" spans="1:14">
-      <c r="A16" s="2" t="s">
-        <v>811</v>
-      </c>
-      <c r="B16" s="12"/>
+        <v>28</v>
+      </c>
+      <c r="D15" s="23" t="s">
+        <v>830</v>
+      </c>
+      <c r="E15" s="24" t="s">
+        <v>358</v>
+      </c>
+      <c r="F15" s="21" t="s">
+        <v>325</v>
+      </c>
+      <c r="G15" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="H15" s="24"/>
+      <c r="I15" s="24"/>
+      <c r="J15" s="21"/>
+      <c r="K15" s="21"/>
+      <c r="L15" s="21"/>
+      <c r="M15" s="21"/>
+      <c r="N15" s="22"/>
+      <c r="O15" s="20"/>
+    </row>
+    <row r="16" spans="1:15">
+      <c r="A16" s="13"/>
+      <c r="B16" s="13"/>
       <c r="C16" s="3">
-        <v>15</v>
-      </c>
-      <c r="D16" s="14" t="s">
-        <v>839</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>850</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>860</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H16" s="16" t="s">
-        <v>861</v>
-      </c>
-      <c r="I16" s="16" t="s">
-        <v>861</v>
-      </c>
-      <c r="J16" s="3"/>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
-      <c r="M16" s="3"/>
-      <c r="N16" s="4"/>
-    </row>
-    <row r="17" spans="1:14">
-      <c r="A17" s="2"/>
-      <c r="B17" s="12" t="s">
-        <v>812</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="D16" s="23" t="s">
+        <v>830</v>
+      </c>
+      <c r="E16" s="24" t="s">
+        <v>358</v>
+      </c>
+      <c r="F16" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="G16" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="H16" s="24"/>
+      <c r="I16" s="21"/>
+      <c r="J16" s="21"/>
+      <c r="K16" s="21"/>
+      <c r="L16" s="21"/>
+      <c r="M16" s="21"/>
+      <c r="N16" s="22"/>
+      <c r="O16" s="20"/>
+    </row>
+    <row r="17" spans="1:15">
+      <c r="A17" s="13"/>
+      <c r="B17" s="13"/>
       <c r="C17" s="3">
-        <v>16</v>
-      </c>
-      <c r="D17" s="14" t="s">
-        <v>839</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>850</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>862</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H17" s="16" t="s">
-        <v>863</v>
-      </c>
-      <c r="I17" s="17">
-        <v>0.46609953703703705</v>
-      </c>
-      <c r="J17" s="3"/>
-      <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
-      <c r="M17" s="3"/>
-      <c r="N17" s="4"/>
-    </row>
-    <row r="18" spans="1:14">
-      <c r="A18" s="2"/>
-      <c r="B18" s="12" t="s">
-        <v>813</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="D17" s="23" t="s">
+        <v>830</v>
+      </c>
+      <c r="E17" s="24" t="s">
+        <v>397</v>
+      </c>
+      <c r="F17" s="21" t="s">
+        <v>222</v>
+      </c>
+      <c r="G17" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="H17" s="24" t="s">
+        <v>876</v>
+      </c>
+      <c r="I17" s="24"/>
+      <c r="J17" s="21"/>
+      <c r="K17" s="21"/>
+      <c r="L17" s="21"/>
+      <c r="M17" s="21"/>
+      <c r="N17" s="22"/>
+      <c r="O17" s="20"/>
+    </row>
+    <row r="18" spans="1:15">
+      <c r="A18" s="13"/>
+      <c r="B18" s="13"/>
       <c r="C18" s="3">
+        <v>31</v>
+      </c>
+      <c r="D18" s="23" t="s">
+        <v>830</v>
+      </c>
+      <c r="E18" s="24" t="s">
+        <v>397</v>
+      </c>
+      <c r="F18" s="21" t="s">
+        <v>221</v>
+      </c>
+      <c r="G18" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="H18" s="24" t="s">
+        <v>875</v>
+      </c>
+      <c r="I18" s="24"/>
+      <c r="J18" s="21"/>
+      <c r="K18" s="21"/>
+      <c r="L18" s="21"/>
+      <c r="M18" s="21"/>
+      <c r="N18" s="22"/>
+      <c r="O18" s="20"/>
+    </row>
+    <row r="19" spans="1:15">
+      <c r="A19" s="13"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="3">
+        <v>32</v>
+      </c>
+      <c r="D19" s="23" t="s">
+        <v>830</v>
+      </c>
+      <c r="E19" s="24" t="s">
+        <v>397</v>
+      </c>
+      <c r="F19" s="21" t="s">
+        <v>398</v>
+      </c>
+      <c r="G19" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="H19" s="24" t="s">
+        <v>879</v>
+      </c>
+      <c r="I19" s="24"/>
+      <c r="J19" s="21"/>
+      <c r="K19" s="21"/>
+      <c r="L19" s="21"/>
+      <c r="M19" s="21"/>
+      <c r="N19" s="22"/>
+      <c r="O19" s="20"/>
+    </row>
+    <row r="20" spans="1:15">
+      <c r="A20" s="13"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="3">
+        <v>33</v>
+      </c>
+      <c r="D20" s="23" t="s">
+        <v>830</v>
+      </c>
+      <c r="E20" s="24" t="s">
+        <v>397</v>
+      </c>
+      <c r="F20" s="21" t="s">
+        <v>399</v>
+      </c>
+      <c r="G20" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="H20" s="24" t="s">
+        <v>877</v>
+      </c>
+      <c r="I20" s="24"/>
+      <c r="J20" s="21"/>
+      <c r="K20" s="21"/>
+      <c r="L20" s="21"/>
+      <c r="M20" s="21"/>
+      <c r="N20" s="22"/>
+      <c r="O20" s="20"/>
+    </row>
+    <row r="21" spans="1:15">
+      <c r="A21" s="13"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="3">
+        <v>34</v>
+      </c>
+      <c r="D21" s="23" t="s">
+        <v>830</v>
+      </c>
+      <c r="E21" s="24" t="s">
+        <v>397</v>
+      </c>
+      <c r="F21" s="21" t="s">
+        <v>402</v>
+      </c>
+      <c r="G21" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="H21" s="24" t="s">
+        <v>878</v>
+      </c>
+      <c r="I21" s="24"/>
+      <c r="J21" s="21"/>
+      <c r="K21" s="21"/>
+      <c r="L21" s="21"/>
+      <c r="M21" s="21"/>
+      <c r="N21" s="22"/>
+      <c r="O21" s="20"/>
+    </row>
+    <row r="22" spans="1:15">
+      <c r="A22" s="13"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="3">
+        <v>35</v>
+      </c>
+      <c r="D22" s="23" t="s">
+        <v>832</v>
+      </c>
+      <c r="E22" s="24" t="s">
+        <v>799</v>
+      </c>
+      <c r="F22" s="21">
+        <v>2</v>
+      </c>
+      <c r="G22" s="21"/>
+      <c r="H22" s="24"/>
+      <c r="I22" s="24"/>
+      <c r="J22" s="21"/>
+      <c r="K22" s="21"/>
+      <c r="L22" s="21"/>
+      <c r="M22" s="21"/>
+      <c r="N22" s="22"/>
+      <c r="O22" s="20"/>
+    </row>
+    <row r="23" spans="1:15">
+      <c r="A23" s="13"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="3">
+        <v>36</v>
+      </c>
+      <c r="D23" s="23" t="s">
+        <v>830</v>
+      </c>
+      <c r="E23" s="24" t="s">
+        <v>397</v>
+      </c>
+      <c r="F23" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="D18" s="14" t="s">
-        <v>839</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>850</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>864</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H18" s="16" t="s">
-        <v>865</v>
-      </c>
-      <c r="I18" s="16">
-        <v>36841</v>
-      </c>
-      <c r="J18" s="3"/>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
-      <c r="M18" s="3"/>
-      <c r="N18" s="4"/>
-    </row>
-    <row r="19" spans="1:14">
-      <c r="A19" s="2" t="s">
-        <v>814</v>
-      </c>
-      <c r="B19" s="12" t="s">
-        <v>805</v>
-      </c>
-      <c r="C19" s="3">
-        <v>18</v>
-      </c>
-      <c r="D19" s="14" t="s">
-        <v>839</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>850</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>866</v>
-      </c>
-      <c r="G19" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H19" s="16" t="s">
-        <v>867</v>
-      </c>
-      <c r="I19" s="17">
-        <v>0.38343750000000004</v>
-      </c>
-      <c r="J19" s="3"/>
-      <c r="K19" s="3"/>
-      <c r="L19" s="3"/>
-      <c r="M19" s="3"/>
-      <c r="N19" s="4"/>
-    </row>
-    <row r="20" spans="1:14">
-      <c r="A20" s="2" t="s">
-        <v>815</v>
-      </c>
-      <c r="B20" s="12"/>
-      <c r="C20" s="3">
-        <v>19</v>
-      </c>
-      <c r="D20" s="14" t="s">
-        <v>839</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>620</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>626</v>
-      </c>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3" t="s">
-        <v>868</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>869</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>870</v>
-      </c>
-      <c r="K20" s="3"/>
-      <c r="L20" s="3"/>
-      <c r="M20" s="3"/>
-      <c r="N20" s="4"/>
-    </row>
-    <row r="21" spans="1:14">
-      <c r="A21" s="2" t="s">
-        <v>816</v>
-      </c>
-      <c r="B21" s="12"/>
-      <c r="C21" s="3">
-        <v>20</v>
-      </c>
-      <c r="D21" s="14" t="s">
-        <v>839</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>850</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-      <c r="K21" s="3"/>
-      <c r="L21" s="3"/>
-      <c r="M21" s="3"/>
-      <c r="N21" s="4"/>
-    </row>
-    <row r="22" spans="1:14">
-      <c r="A22" s="18"/>
-      <c r="B22" s="18"/>
-      <c r="C22" s="3">
-        <v>21</v>
-      </c>
-      <c r="D22" s="14" t="s">
-        <v>839</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>850</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
-      <c r="K22" s="3"/>
-      <c r="L22" s="3"/>
-      <c r="M22" s="3"/>
-      <c r="N22" s="4"/>
-    </row>
-    <row r="23" spans="1:14">
-      <c r="A23" s="18"/>
-      <c r="B23" s="18"/>
-      <c r="C23" s="3">
-        <v>22</v>
-      </c>
-      <c r="D23" s="14" t="s">
-        <v>839</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>620</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
-      <c r="K23" s="3"/>
-      <c r="L23" s="3"/>
-      <c r="M23" s="3"/>
-      <c r="N23" s="4"/>
-    </row>
-    <row r="24" spans="1:14">
-      <c r="A24" s="18"/>
-      <c r="B24" s="18"/>
+      <c r="G23" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="H23" s="24"/>
+      <c r="I23" s="24"/>
+      <c r="J23" s="21"/>
+      <c r="K23" s="21"/>
+      <c r="L23" s="21"/>
+      <c r="M23" s="21"/>
+      <c r="N23" s="22"/>
+      <c r="O23" s="20"/>
+    </row>
+    <row r="24" spans="1:15">
+      <c r="A24" s="13"/>
+      <c r="B24" s="13"/>
       <c r="C24" s="3">
-        <v>23</v>
-      </c>
-      <c r="D24" s="14" t="s">
-        <v>839</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>559</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>871</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>872</v>
-      </c>
-      <c r="I24" s="3" t="s">
-        <v>873</v>
-      </c>
-      <c r="J24" s="3" t="s">
-        <v>874</v>
-      </c>
-      <c r="K24" s="3"/>
-      <c r="L24" s="3"/>
-      <c r="M24" s="3"/>
-      <c r="N24" s="4"/>
-    </row>
-    <row r="25" spans="1:14">
-      <c r="A25" s="18"/>
-      <c r="B25" s="18"/>
-      <c r="C25" s="3">
-        <v>24</v>
-      </c>
-      <c r="D25" s="14" t="s">
-        <v>839</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>559</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="G25" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H25" s="3" t="s">
-        <v>872</v>
-      </c>
-      <c r="I25" s="3" t="s">
-        <v>875</v>
-      </c>
-      <c r="J25" s="3" t="s">
-        <v>876</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="D24" s="23" t="s">
+        <v>832</v>
+      </c>
+      <c r="E24" s="24" t="s">
+        <v>799</v>
+      </c>
+      <c r="F24" s="21">
+        <v>2</v>
+      </c>
+      <c r="G24" s="21"/>
+      <c r="H24" s="24"/>
+      <c r="I24" s="24"/>
+      <c r="J24" s="21"/>
+      <c r="K24" s="21"/>
+      <c r="L24" s="21"/>
+      <c r="M24" s="21"/>
+      <c r="N24" s="22"/>
+      <c r="O24" s="20"/>
+    </row>
+    <row r="25" spans="1:15">
+      <c r="C25" s="3"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
       <c r="K25" s="3"/>
       <c r="L25" s="3"/>
       <c r="M25" s="3"/>
-      <c r="N25" s="4"/>
-    </row>
-    <row r="26" spans="1:14">
-      <c r="A26" s="18"/>
-      <c r="B26" s="18"/>
-      <c r="C26" s="3">
-        <v>25</v>
-      </c>
-      <c r="D26" s="14" t="s">
-        <v>839</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>559</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H26" s="3" t="s">
-        <v>872</v>
-      </c>
-      <c r="I26" s="3" t="s">
-        <v>877</v>
-      </c>
-      <c r="J26" s="3" t="s">
-        <v>878</v>
-      </c>
+      <c r="N25" s="17"/>
+    </row>
+    <row r="26" spans="1:15">
+      <c r="C26" s="3"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
       <c r="K26" s="3"/>
       <c r="L26" s="3"/>
       <c r="M26" s="3"/>
-      <c r="N26" s="4"/>
-    </row>
-    <row r="27" spans="1:14">
-      <c r="A27" s="18"/>
-      <c r="B27" s="18"/>
-      <c r="C27" s="3">
-        <v>26</v>
-      </c>
-      <c r="D27" s="14" t="s">
-        <v>836</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>802</v>
-      </c>
+      <c r="N26" s="17"/>
+    </row>
+    <row r="27" spans="1:15">
+      <c r="C27" s="3"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="3"/>
       <c r="F27" s="3"/>
       <c r="G27" s="3"/>
-      <c r="H27" s="3" t="s">
-        <v>880</v>
-      </c>
-      <c r="I27" s="3">
-        <v>1</v>
-      </c>
-      <c r="J27" s="3" t="s">
-        <v>879</v>
-      </c>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
       <c r="K27" s="3"/>
       <c r="L27" s="3"/>
       <c r="M27" s="3"/>
-      <c r="N27" s="4"/>
-    </row>
-    <row r="28" spans="1:14">
-      <c r="A28" s="18"/>
-      <c r="B28" s="18"/>
-      <c r="C28" s="3">
-        <v>27</v>
-      </c>
-      <c r="D28" s="14"/>
+      <c r="N27" s="17"/>
+    </row>
+    <row r="28" spans="1:15">
+      <c r="C28" s="3"/>
+      <c r="D28" s="12"/>
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
       <c r="G28" s="3"/>
@@ -5317,15 +5334,11 @@
       <c r="K28" s="3"/>
       <c r="L28" s="3"/>
       <c r="M28" s="3"/>
-      <c r="N28" s="4"/>
-    </row>
-    <row r="29" spans="1:14">
-      <c r="A29" s="18"/>
-      <c r="B29" s="18"/>
-      <c r="C29" s="3">
-        <v>28</v>
-      </c>
-      <c r="D29" s="14"/>
+      <c r="N28" s="17"/>
+    </row>
+    <row r="29" spans="1:15">
+      <c r="C29" s="3"/>
+      <c r="D29" s="12"/>
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
       <c r="G29" s="3"/>
@@ -5335,15 +5348,11 @@
       <c r="K29" s="3"/>
       <c r="L29" s="3"/>
       <c r="M29" s="3"/>
-      <c r="N29" s="4"/>
-    </row>
-    <row r="30" spans="1:14">
-      <c r="A30" s="18"/>
-      <c r="B30" s="18"/>
-      <c r="C30" s="3">
-        <v>29</v>
-      </c>
-      <c r="D30" s="14"/>
+      <c r="N29" s="17"/>
+    </row>
+    <row r="30" spans="1:15">
+      <c r="C30" s="3"/>
+      <c r="D30" s="12"/>
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
       <c r="G30" s="3"/>
@@ -5353,15 +5362,11 @@
       <c r="K30" s="3"/>
       <c r="L30" s="3"/>
       <c r="M30" s="3"/>
-      <c r="N30" s="4"/>
-    </row>
-    <row r="31" spans="1:14">
-      <c r="A31" s="18"/>
-      <c r="B31" s="18"/>
-      <c r="C31" s="3">
-        <v>30</v>
-      </c>
-      <c r="D31" s="14"/>
+      <c r="N30" s="17"/>
+    </row>
+    <row r="31" spans="1:15">
+      <c r="C31" s="3"/>
+      <c r="D31" s="12"/>
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
       <c r="G31" s="3"/>
@@ -5371,15 +5376,11 @@
       <c r="K31" s="3"/>
       <c r="L31" s="3"/>
       <c r="M31" s="3"/>
-      <c r="N31" s="4"/>
-    </row>
-    <row r="32" spans="1:14">
-      <c r="A32" s="18"/>
-      <c r="B32" s="18"/>
-      <c r="C32" s="3">
-        <v>31</v>
-      </c>
-      <c r="D32" s="14"/>
+      <c r="N31" s="17"/>
+    </row>
+    <row r="32" spans="1:15">
+      <c r="C32" s="3"/>
+      <c r="D32" s="12"/>
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
       <c r="G32" s="3"/>
@@ -5389,15 +5390,11 @@
       <c r="K32" s="3"/>
       <c r="L32" s="3"/>
       <c r="M32" s="3"/>
-      <c r="N32" s="4"/>
-    </row>
-    <row r="33" spans="1:14">
-      <c r="A33" s="18"/>
-      <c r="B33" s="18"/>
-      <c r="C33" s="3">
-        <v>32</v>
-      </c>
-      <c r="D33" s="14"/>
+      <c r="N32" s="17"/>
+    </row>
+    <row r="33" spans="3:14">
+      <c r="C33" s="3"/>
+      <c r="D33" s="12"/>
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
       <c r="G33" s="3"/>
@@ -5407,15 +5404,11 @@
       <c r="K33" s="3"/>
       <c r="L33" s="3"/>
       <c r="M33" s="3"/>
-      <c r="N33" s="4"/>
-    </row>
-    <row r="34" spans="1:14">
-      <c r="A34" s="18"/>
-      <c r="B34" s="18"/>
-      <c r="C34" s="3">
-        <v>33</v>
-      </c>
-      <c r="D34" s="14"/>
+      <c r="N33" s="17"/>
+    </row>
+    <row r="34" spans="3:14">
+      <c r="C34" s="3"/>
+      <c r="D34" s="12"/>
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
       <c r="G34" s="3"/>
@@ -5425,15 +5418,11 @@
       <c r="K34" s="3"/>
       <c r="L34" s="3"/>
       <c r="M34" s="3"/>
-      <c r="N34" s="4"/>
-    </row>
-    <row r="35" spans="1:14">
-      <c r="A35" s="18"/>
-      <c r="B35" s="18"/>
-      <c r="C35" s="3">
-        <v>34</v>
-      </c>
-      <c r="D35" s="14"/>
+      <c r="N34" s="17"/>
+    </row>
+    <row r="35" spans="3:14">
+      <c r="C35" s="3"/>
+      <c r="D35" s="12"/>
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
       <c r="G35" s="3"/>
@@ -5443,15 +5432,11 @@
       <c r="K35" s="3"/>
       <c r="L35" s="3"/>
       <c r="M35" s="3"/>
-      <c r="N35" s="4"/>
-    </row>
-    <row r="36" spans="1:14">
-      <c r="A36" s="18"/>
-      <c r="B36" s="18"/>
-      <c r="C36" s="3">
-        <v>35</v>
-      </c>
-      <c r="D36" s="14"/>
+      <c r="N35" s="17"/>
+    </row>
+    <row r="36" spans="3:14">
+      <c r="C36" s="3"/>
+      <c r="D36" s="12"/>
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
       <c r="G36" s="3"/>
@@ -5461,15 +5446,11 @@
       <c r="K36" s="3"/>
       <c r="L36" s="3"/>
       <c r="M36" s="3"/>
-      <c r="N36" s="4"/>
-    </row>
-    <row r="37" spans="1:14">
-      <c r="A37" s="18"/>
-      <c r="B37" s="18"/>
-      <c r="C37" s="3">
-        <v>36</v>
-      </c>
-      <c r="D37" s="14"/>
+      <c r="N36" s="17"/>
+    </row>
+    <row r="37" spans="3:14">
+      <c r="C37" s="3"/>
+      <c r="D37" s="12"/>
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
       <c r="G37" s="3"/>
@@ -5479,15 +5460,11 @@
       <c r="K37" s="3"/>
       <c r="L37" s="3"/>
       <c r="M37" s="3"/>
-      <c r="N37" s="4"/>
-    </row>
-    <row r="38" spans="1:14">
-      <c r="A38" s="18"/>
-      <c r="B38" s="18"/>
-      <c r="C38" s="3">
-        <v>37</v>
-      </c>
-      <c r="D38" s="14"/>
+      <c r="N37" s="17"/>
+    </row>
+    <row r="38" spans="3:14">
+      <c r="C38" s="3"/>
+      <c r="D38" s="12"/>
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
       <c r="G38" s="3"/>
@@ -5497,15 +5474,11 @@
       <c r="K38" s="3"/>
       <c r="L38" s="3"/>
       <c r="M38" s="3"/>
-      <c r="N38" s="4"/>
-    </row>
-    <row r="39" spans="1:14">
-      <c r="A39" s="18"/>
-      <c r="B39" s="18"/>
-      <c r="C39" s="3">
-        <v>38</v>
-      </c>
-      <c r="D39" s="14"/>
+      <c r="N38" s="17"/>
+    </row>
+    <row r="39" spans="3:14">
+      <c r="C39" s="3"/>
+      <c r="D39" s="12"/>
       <c r="E39" s="3"/>
       <c r="F39" s="3"/>
       <c r="G39" s="3"/>
@@ -5515,15 +5488,11 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-      <c r="N39" s="4"/>
-    </row>
-    <row r="40" spans="1:14">
-      <c r="A40" s="18"/>
-      <c r="B40" s="18"/>
-      <c r="C40" s="3">
-        <v>39</v>
-      </c>
-      <c r="D40" s="14"/>
+      <c r="N39" s="17"/>
+    </row>
+    <row r="40" spans="3:14">
+      <c r="C40" s="3"/>
+      <c r="D40" s="12"/>
       <c r="E40" s="3"/>
       <c r="F40" s="3"/>
       <c r="G40" s="3"/>
@@ -5533,15 +5502,11 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-      <c r="N40" s="4"/>
-    </row>
-    <row r="41" spans="1:14">
-      <c r="A41" s="18"/>
-      <c r="B41" s="18"/>
-      <c r="C41" s="3">
-        <v>40</v>
-      </c>
-      <c r="D41" s="14"/>
+      <c r="N40" s="17"/>
+    </row>
+    <row r="41" spans="3:14">
+      <c r="C41" s="3"/>
+      <c r="D41" s="12"/>
       <c r="E41" s="3"/>
       <c r="F41" s="3"/>
       <c r="G41" s="3"/>
@@ -5551,15 +5516,11 @@
       <c r="K41" s="3"/>
       <c r="L41" s="3"/>
       <c r="M41" s="3"/>
-      <c r="N41" s="4"/>
-    </row>
-    <row r="42" spans="1:14">
-      <c r="A42" s="18"/>
-      <c r="B42" s="18"/>
-      <c r="C42" s="3">
-        <v>41</v>
-      </c>
-      <c r="D42" s="14"/>
+      <c r="N41" s="17"/>
+    </row>
+    <row r="42" spans="3:14">
+      <c r="C42" s="3"/>
+      <c r="D42" s="12"/>
       <c r="E42" s="3"/>
       <c r="F42" s="3"/>
       <c r="G42" s="3"/>
@@ -5569,15 +5530,11 @@
       <c r="K42" s="3"/>
       <c r="L42" s="3"/>
       <c r="M42" s="3"/>
-      <c r="N42" s="4"/>
-    </row>
-    <row r="43" spans="1:14">
-      <c r="A43" s="18"/>
-      <c r="B43" s="18"/>
-      <c r="C43" s="3">
-        <v>42</v>
-      </c>
-      <c r="D43" s="14"/>
+      <c r="N42" s="17"/>
+    </row>
+    <row r="43" spans="3:14">
+      <c r="C43" s="3"/>
+      <c r="D43" s="12"/>
       <c r="E43" s="3"/>
       <c r="F43" s="3"/>
       <c r="G43" s="3"/>
@@ -5587,13 +5544,11 @@
       <c r="K43" s="3"/>
       <c r="L43" s="3"/>
       <c r="M43" s="3"/>
-      <c r="N43" s="4"/>
-    </row>
-    <row r="44" spans="1:14">
-      <c r="A44" s="18"/>
-      <c r="B44" s="18"/>
-      <c r="C44" s="13"/>
-      <c r="D44" s="14"/>
+      <c r="N43" s="17"/>
+    </row>
+    <row r="44" spans="3:14">
+      <c r="C44" s="3"/>
+      <c r="D44" s="12"/>
       <c r="E44" s="3"/>
       <c r="F44" s="3"/>
       <c r="G44" s="3"/>
@@ -5603,11 +5558,11 @@
       <c r="K44" s="3"/>
       <c r="L44" s="3"/>
       <c r="M44" s="3"/>
-      <c r="N44" s="4"/>
-    </row>
-    <row r="45" spans="1:14">
-      <c r="C45" s="13"/>
-      <c r="D45" s="14"/>
+      <c r="N44" s="17"/>
+    </row>
+    <row r="45" spans="3:14">
+      <c r="C45" s="3"/>
+      <c r="D45" s="12"/>
       <c r="E45" s="3"/>
       <c r="F45" s="3"/>
       <c r="G45" s="3"/>
@@ -5617,11 +5572,11 @@
       <c r="K45" s="3"/>
       <c r="L45" s="3"/>
       <c r="M45" s="3"/>
-      <c r="N45" s="4"/>
-    </row>
-    <row r="46" spans="1:14">
-      <c r="C46" s="13"/>
-      <c r="D46" s="14"/>
+      <c r="N45" s="17"/>
+    </row>
+    <row r="46" spans="3:14">
+      <c r="C46" s="3"/>
+      <c r="D46" s="12"/>
       <c r="E46" s="3"/>
       <c r="F46" s="3"/>
       <c r="G46" s="3"/>
@@ -5631,11 +5586,11 @@
       <c r="K46" s="3"/>
       <c r="L46" s="3"/>
       <c r="M46" s="3"/>
-      <c r="N46" s="4"/>
-    </row>
-    <row r="47" spans="1:14">
-      <c r="C47" s="13"/>
-      <c r="D47" s="14"/>
+      <c r="N46" s="17"/>
+    </row>
+    <row r="47" spans="3:14">
+      <c r="C47" s="3"/>
+      <c r="D47" s="12"/>
       <c r="E47" s="3"/>
       <c r="F47" s="3"/>
       <c r="G47" s="3"/>
@@ -5645,61 +5600,1933 @@
       <c r="K47" s="3"/>
       <c r="L47" s="3"/>
       <c r="M47" s="3"/>
-      <c r="N47" s="4"/>
-    </row>
-    <row r="48" spans="1:14">
-      <c r="C48" s="13"/>
-      <c r="D48" s="14"/>
+      <c r="N47" s="17"/>
+    </row>
+    <row r="48" spans="3:14">
+      <c r="C48" s="3"/>
+      <c r="D48" s="12"/>
       <c r="E48" s="3"/>
       <c r="F48" s="3"/>
       <c r="G48" s="3"/>
       <c r="H48" s="3"/>
       <c r="I48" s="3"/>
-      <c r="J48" s="13"/>
-      <c r="K48" s="13"/>
-      <c r="L48" s="13"/>
-      <c r="M48" s="13"/>
-      <c r="N48" s="4"/>
-    </row>
-    <row r="49" spans="4:9">
-      <c r="D49" s="14"/>
+      <c r="J48" s="3"/>
+      <c r="K48" s="3"/>
+      <c r="L48" s="3"/>
+      <c r="M48" s="3"/>
+      <c r="N48" s="17"/>
+    </row>
+    <row r="49" spans="3:14">
+      <c r="C49" s="3"/>
+      <c r="D49" s="12"/>
       <c r="E49" s="3"/>
       <c r="F49" s="3"/>
       <c r="G49" s="3"/>
       <c r="H49" s="3"/>
-      <c r="I49" s="13"/>
-    </row>
-    <row r="50" spans="4:9">
-      <c r="D50" s="13"/>
+      <c r="I49" s="3"/>
+      <c r="J49" s="3"/>
+      <c r="K49" s="3"/>
+      <c r="L49" s="3"/>
+      <c r="M49" s="3"/>
+      <c r="N49" s="17"/>
+    </row>
+    <row r="50" spans="3:14">
+      <c r="C50" s="3"/>
+      <c r="D50" s="12"/>
       <c r="E50" s="3"/>
       <c r="F50" s="3"/>
       <c r="G50" s="3"/>
-      <c r="H50" s="13"/>
+      <c r="H50" s="3"/>
+      <c r="I50" s="3"/>
+      <c r="J50" s="3"/>
+      <c r="K50" s="3"/>
+      <c r="L50" s="3"/>
+      <c r="M50" s="3"/>
+      <c r="N50" s="17"/>
+    </row>
+    <row r="51" spans="3:14">
+      <c r="C51" s="3"/>
+      <c r="D51" s="12"/>
+      <c r="E51" s="3"/>
+      <c r="F51" s="3"/>
+      <c r="G51" s="3"/>
+      <c r="H51" s="3"/>
+      <c r="I51" s="3"/>
+      <c r="J51" s="3"/>
+      <c r="K51" s="3"/>
+      <c r="L51" s="3"/>
+      <c r="M51" s="3"/>
+      <c r="N51" s="17"/>
+    </row>
+    <row r="52" spans="3:14">
+      <c r="C52" s="3"/>
+      <c r="D52" s="12"/>
+      <c r="E52" s="3"/>
+      <c r="F52" s="3"/>
+      <c r="G52" s="3"/>
+      <c r="H52" s="3"/>
+      <c r="I52" s="3"/>
+      <c r="J52" s="3"/>
+      <c r="K52" s="3"/>
+      <c r="L52" s="3"/>
+      <c r="M52" s="3"/>
+      <c r="N52" s="17"/>
+    </row>
+    <row r="53" spans="3:14">
+      <c r="C53" s="3"/>
+      <c r="D53" s="12"/>
+      <c r="E53" s="3"/>
+      <c r="F53" s="3"/>
+      <c r="G53" s="3"/>
+      <c r="H53" s="3"/>
+      <c r="I53" s="3"/>
+      <c r="J53" s="3"/>
+      <c r="K53" s="3"/>
+      <c r="L53" s="3"/>
+      <c r="M53" s="3"/>
+      <c r="N53" s="17"/>
+    </row>
+    <row r="54" spans="3:14">
+      <c r="C54" s="3"/>
+      <c r="D54" s="12"/>
+      <c r="E54" s="3"/>
+      <c r="F54" s="3"/>
+      <c r="G54" s="3"/>
+      <c r="H54" s="3"/>
+      <c r="I54" s="3"/>
+      <c r="J54" s="3"/>
+      <c r="K54" s="3"/>
+      <c r="L54" s="3"/>
+      <c r="M54" s="3"/>
+      <c r="N54" s="17"/>
+    </row>
+    <row r="55" spans="3:14">
+      <c r="C55" s="3"/>
+      <c r="D55" s="12"/>
+      <c r="E55" s="3"/>
+      <c r="F55" s="3"/>
+      <c r="G55" s="3"/>
+      <c r="H55" s="3"/>
+      <c r="I55" s="3"/>
+      <c r="J55" s="3"/>
+      <c r="K55" s="3"/>
+      <c r="L55" s="3"/>
+      <c r="M55" s="3"/>
+      <c r="N55" s="17"/>
+    </row>
+    <row r="56" spans="3:14">
+      <c r="C56" s="3"/>
+      <c r="D56" s="12"/>
+      <c r="E56" s="3"/>
+      <c r="F56" s="3"/>
+      <c r="G56" s="3"/>
+      <c r="H56" s="3"/>
+      <c r="I56" s="3"/>
+      <c r="J56" s="3"/>
+      <c r="K56" s="3"/>
+      <c r="L56" s="3"/>
+      <c r="M56" s="3"/>
+      <c r="N56" s="17"/>
+    </row>
+    <row r="57" spans="3:14">
+      <c r="C57" s="3"/>
+      <c r="D57" s="12"/>
+      <c r="E57" s="3"/>
+      <c r="F57" s="3"/>
+      <c r="G57" s="3"/>
+      <c r="H57" s="3"/>
+      <c r="I57" s="3"/>
+      <c r="J57" s="3"/>
+      <c r="K57" s="3"/>
+      <c r="L57" s="3"/>
+      <c r="M57" s="3"/>
+      <c r="N57" s="17"/>
+    </row>
+    <row r="58" spans="3:14">
+      <c r="C58" s="3"/>
+      <c r="D58" s="12"/>
+      <c r="E58" s="3"/>
+      <c r="F58" s="3"/>
+      <c r="G58" s="3"/>
+      <c r="H58" s="3"/>
+      <c r="I58" s="3"/>
+      <c r="J58" s="3"/>
+      <c r="K58" s="3"/>
+      <c r="L58" s="3"/>
+      <c r="M58" s="3"/>
+      <c r="N58" s="17"/>
+    </row>
+    <row r="59" spans="3:14">
+      <c r="C59" s="3"/>
+      <c r="D59" s="12"/>
+      <c r="E59" s="3"/>
+      <c r="F59" s="3"/>
+      <c r="G59" s="3"/>
+      <c r="H59" s="3"/>
+      <c r="I59" s="3"/>
+      <c r="J59" s="3"/>
+      <c r="K59" s="3"/>
+      <c r="L59" s="3"/>
+      <c r="M59" s="3"/>
+      <c r="N59" s="17"/>
+    </row>
+    <row r="60" spans="3:14">
+      <c r="C60" s="3"/>
+      <c r="D60" s="12"/>
+      <c r="E60" s="3"/>
+      <c r="F60" s="3"/>
+      <c r="G60" s="3"/>
+      <c r="H60" s="3"/>
+      <c r="I60" s="3"/>
+      <c r="J60" s="3"/>
+      <c r="K60" s="3"/>
+      <c r="L60" s="3"/>
+      <c r="M60" s="3"/>
+      <c r="N60" s="17"/>
+    </row>
+    <row r="61" spans="3:14">
+      <c r="C61" s="3"/>
+      <c r="D61" s="12"/>
+      <c r="E61" s="3"/>
+      <c r="F61" s="3"/>
+      <c r="G61" s="3"/>
+      <c r="H61" s="3"/>
+      <c r="I61" s="3"/>
+      <c r="J61" s="3"/>
+      <c r="K61" s="3"/>
+      <c r="L61" s="3"/>
+      <c r="M61" s="3"/>
+      <c r="N61" s="17"/>
+    </row>
+    <row r="62" spans="3:14">
+      <c r="C62" s="3"/>
+      <c r="D62" s="12"/>
+      <c r="E62" s="3"/>
+      <c r="F62" s="3"/>
+      <c r="G62" s="3"/>
+      <c r="H62" s="3"/>
+      <c r="I62" s="3"/>
+      <c r="J62" s="3"/>
+      <c r="K62" s="3"/>
+      <c r="L62" s="3"/>
+      <c r="M62" s="3"/>
+      <c r="N62" s="17"/>
+    </row>
+    <row r="63" spans="3:14">
+      <c r="C63" s="3"/>
+      <c r="D63" s="12"/>
+      <c r="E63" s="3"/>
+      <c r="F63" s="3"/>
+      <c r="G63" s="3"/>
+      <c r="H63" s="3"/>
+      <c r="I63" s="3"/>
+      <c r="J63" s="3"/>
+      <c r="K63" s="3"/>
+      <c r="L63" s="3"/>
+      <c r="M63" s="3"/>
+      <c r="N63" s="17"/>
+    </row>
+    <row r="64" spans="3:14">
+      <c r="C64" s="3"/>
+      <c r="D64" s="12"/>
+      <c r="E64" s="3"/>
+      <c r="F64" s="3"/>
+      <c r="G64" s="3"/>
+      <c r="H64" s="3"/>
+      <c r="I64" s="3"/>
+      <c r="J64" s="3"/>
+      <c r="K64" s="3"/>
+      <c r="L64" s="3"/>
+      <c r="M64" s="3"/>
+      <c r="N64" s="17"/>
+    </row>
+    <row r="65" spans="3:14">
+      <c r="C65" s="3"/>
+      <c r="D65" s="12"/>
+      <c r="E65" s="3"/>
+      <c r="F65" s="3"/>
+      <c r="G65" s="3"/>
+      <c r="H65" s="3"/>
+      <c r="I65" s="3"/>
+      <c r="J65" s="3"/>
+      <c r="K65" s="3"/>
+      <c r="L65" s="3"/>
+      <c r="M65" s="3"/>
+      <c r="N65" s="17"/>
+    </row>
+    <row r="66" spans="3:14">
+      <c r="C66" s="3"/>
+      <c r="D66" s="12"/>
+      <c r="E66" s="3"/>
+      <c r="F66" s="3"/>
+      <c r="G66" s="3"/>
+      <c r="H66" s="3"/>
+      <c r="I66" s="3"/>
+      <c r="J66" s="3"/>
+      <c r="K66" s="3"/>
+      <c r="L66" s="3"/>
+      <c r="M66" s="3"/>
+      <c r="N66" s="17"/>
+    </row>
+    <row r="67" spans="3:14">
+      <c r="C67" s="3"/>
+      <c r="D67" s="12"/>
+      <c r="E67" s="3"/>
+      <c r="F67" s="3"/>
+      <c r="G67" s="3"/>
+      <c r="H67" s="3"/>
+      <c r="I67" s="3"/>
+      <c r="J67" s="3"/>
+      <c r="K67" s="3"/>
+      <c r="L67" s="3"/>
+      <c r="M67" s="3"/>
+      <c r="N67" s="17"/>
+    </row>
+    <row r="68" spans="3:14">
+      <c r="C68" s="3">
+        <v>76</v>
+      </c>
+      <c r="D68" s="14" t="s">
+        <v>862</v>
+      </c>
+      <c r="E68" s="3"/>
+      <c r="F68" s="3"/>
+      <c r="G68" s="3"/>
+      <c r="H68" s="3"/>
+      <c r="I68" s="3"/>
+      <c r="J68" s="3"/>
+      <c r="K68" s="3"/>
+      <c r="L68" s="3"/>
+      <c r="M68" s="3"/>
+      <c r="N68" s="17"/>
+    </row>
+    <row r="69" spans="3:14">
+      <c r="C69" s="3">
+        <v>77</v>
+      </c>
+      <c r="D69" s="12" t="s">
+        <v>856</v>
+      </c>
+      <c r="E69" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F69" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G69" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H69" s="3"/>
+      <c r="I69" s="3"/>
+      <c r="J69" s="3"/>
+      <c r="K69" s="3"/>
+      <c r="L69" s="3"/>
+      <c r="M69" s="3"/>
+      <c r="N69" s="17"/>
+    </row>
+    <row r="70" spans="3:14">
+      <c r="C70" s="3">
+        <v>78</v>
+      </c>
+      <c r="D70" s="12" t="s">
+        <v>856</v>
+      </c>
+      <c r="E70" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F70" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="G70" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H70" s="3"/>
+      <c r="I70" s="3"/>
+      <c r="J70" s="3"/>
+      <c r="K70" s="3"/>
+      <c r="L70" s="3"/>
+      <c r="M70" s="3"/>
+      <c r="N70" s="17"/>
+    </row>
+    <row r="71" spans="3:14">
+      <c r="C71" s="3">
+        <v>79</v>
+      </c>
+      <c r="D71" s="12" t="s">
+        <v>856</v>
+      </c>
+      <c r="E71" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F71" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="G71" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H71" s="3"/>
+      <c r="I71" s="3"/>
+      <c r="J71" s="3"/>
+      <c r="K71" s="3"/>
+      <c r="L71" s="3"/>
+      <c r="M71" s="3"/>
+      <c r="N71" s="17"/>
+    </row>
+    <row r="72" spans="3:14">
+      <c r="C72" s="3">
+        <v>80</v>
+      </c>
+      <c r="D72" s="12" t="s">
+        <v>856</v>
+      </c>
+      <c r="E72" s="5" t="s">
+        <v>747</v>
+      </c>
+      <c r="F72" s="3" t="s">
+        <v>741</v>
+      </c>
+      <c r="G72" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H72" s="5"/>
+      <c r="I72" s="3"/>
+      <c r="J72" s="3"/>
+      <c r="K72" s="3"/>
+      <c r="L72" s="3"/>
+      <c r="M72" s="3"/>
+      <c r="N72" s="17"/>
+    </row>
+    <row r="73" spans="3:14">
+      <c r="C73" s="3">
+        <v>81</v>
+      </c>
+      <c r="D73" s="12" t="s">
+        <v>856</v>
+      </c>
+      <c r="E73" s="5" t="s">
+        <v>747</v>
+      </c>
+      <c r="F73" s="3" t="s">
+        <v>417</v>
+      </c>
+      <c r="G73" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H73" s="5"/>
+      <c r="I73" s="3"/>
+      <c r="J73" s="3"/>
+      <c r="K73" s="3"/>
+      <c r="L73" s="3"/>
+      <c r="M73" s="3"/>
+      <c r="N73" s="17"/>
+    </row>
+    <row r="74" spans="3:14">
+      <c r="C74" s="3">
+        <v>82</v>
+      </c>
+      <c r="D74" s="12" t="s">
+        <v>856</v>
+      </c>
+      <c r="E74" s="5" t="s">
+        <v>747</v>
+      </c>
+      <c r="F74" s="3" t="s">
+        <v>748</v>
+      </c>
+      <c r="G74" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H74" s="3"/>
+      <c r="I74" s="3"/>
+      <c r="J74" s="3"/>
+      <c r="K74" s="3"/>
+      <c r="L74" s="3"/>
+      <c r="M74" s="3"/>
+      <c r="N74" s="17"/>
+    </row>
+    <row r="75" spans="3:14">
+      <c r="C75" s="3">
+        <v>83</v>
+      </c>
+      <c r="D75" s="12" t="s">
+        <v>856</v>
+      </c>
+      <c r="E75" s="5" t="s">
+        <v>747</v>
+      </c>
+      <c r="F75" s="3" t="s">
+        <v>749</v>
+      </c>
+      <c r="G75" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H75" s="3"/>
+      <c r="I75" s="3"/>
+      <c r="J75" s="3"/>
+      <c r="K75" s="3"/>
+      <c r="L75" s="3"/>
+      <c r="M75" s="3"/>
+      <c r="N75" s="17"/>
+    </row>
+    <row r="76" spans="3:14">
+      <c r="C76" s="3">
+        <v>84</v>
+      </c>
+      <c r="D76" s="12" t="s">
+        <v>856</v>
+      </c>
+      <c r="E76" s="5" t="s">
+        <v>747</v>
+      </c>
+      <c r="F76" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="G76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H76" s="3" t="s">
+        <v>863</v>
+      </c>
+      <c r="I76" s="3"/>
+      <c r="J76" s="3"/>
+      <c r="K76" s="3"/>
+      <c r="L76" s="3"/>
+      <c r="M76" s="3"/>
+      <c r="N76" s="17"/>
+    </row>
+    <row r="77" spans="3:14">
+      <c r="C77" s="3">
+        <v>85</v>
+      </c>
+      <c r="D77" s="12" t="s">
+        <v>856</v>
+      </c>
+      <c r="E77" s="5" t="s">
+        <v>747</v>
+      </c>
+      <c r="F77" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G77" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H77" s="3"/>
+      <c r="I77" s="3"/>
+      <c r="J77" s="3"/>
+      <c r="K77" s="3"/>
+      <c r="L77" s="3"/>
+      <c r="M77" s="3"/>
+      <c r="N77" s="17"/>
+    </row>
+    <row r="78" spans="3:14">
+      <c r="C78" s="3">
+        <v>86</v>
+      </c>
+      <c r="D78" s="12" t="s">
+        <v>857</v>
+      </c>
+      <c r="E78" s="5" t="s">
+        <v>858</v>
+      </c>
+      <c r="F78" s="3">
+        <v>10</v>
+      </c>
+      <c r="G78" s="3"/>
+      <c r="H78" s="3"/>
+      <c r="I78" s="3"/>
+      <c r="J78" s="3"/>
+      <c r="K78" s="3"/>
+      <c r="L78" s="3"/>
+      <c r="M78" s="3"/>
+      <c r="N78" s="17"/>
+    </row>
+    <row r="79" spans="3:14">
+      <c r="C79" s="3">
+        <v>87</v>
+      </c>
+      <c r="D79" s="12" t="s">
+        <v>856</v>
+      </c>
+      <c r="E79" s="5" t="s">
+        <v>750</v>
+      </c>
+      <c r="F79" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G79" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H79" s="3"/>
+      <c r="I79" s="3"/>
+      <c r="J79" s="3"/>
+      <c r="K79" s="3"/>
+      <c r="L79" s="3"/>
+      <c r="M79" s="3"/>
+      <c r="N79" s="17"/>
+    </row>
+    <row r="80" spans="3:14">
+      <c r="C80" s="3">
+        <v>88</v>
+      </c>
+      <c r="D80" s="12" t="s">
+        <v>857</v>
+      </c>
+      <c r="E80" s="3" t="s">
+        <v>859</v>
+      </c>
+      <c r="F80" s="3"/>
+      <c r="G80" s="3"/>
+      <c r="H80" s="3" t="s">
+        <v>863</v>
+      </c>
+      <c r="I80" s="3" t="s">
+        <v>860</v>
+      </c>
+      <c r="J80" s="3"/>
+      <c r="K80" s="3"/>
+      <c r="L80" s="3"/>
+      <c r="M80" s="3"/>
+      <c r="N80" s="17"/>
+    </row>
+    <row r="81" spans="3:14">
+      <c r="C81" s="3">
+        <v>89</v>
+      </c>
+      <c r="D81" s="12" t="s">
+        <v>857</v>
+      </c>
+      <c r="E81" s="3" t="s">
+        <v>859</v>
+      </c>
+      <c r="F81" s="3"/>
+      <c r="G81" s="3"/>
+      <c r="H81" s="3" t="s">
+        <v>863</v>
+      </c>
+      <c r="I81" s="3" t="s">
+        <v>861</v>
+      </c>
+      <c r="J81" s="3"/>
+      <c r="K81" s="3"/>
+      <c r="L81" s="3"/>
+      <c r="M81" s="3"/>
+      <c r="N81" s="17"/>
+    </row>
+    <row r="82" spans="3:14">
+      <c r="C82" s="3">
+        <v>90</v>
+      </c>
+      <c r="D82" s="12" t="s">
+        <v>857</v>
+      </c>
+      <c r="E82" s="3" t="s">
+        <v>859</v>
+      </c>
+      <c r="F82" s="3"/>
+      <c r="G82" s="3"/>
+      <c r="H82" s="3" t="s">
+        <v>863</v>
+      </c>
+      <c r="I82" s="3" t="s">
+        <v>864</v>
+      </c>
+      <c r="J82" s="3"/>
+      <c r="K82" s="3"/>
+      <c r="L82" s="3"/>
+      <c r="M82" s="3"/>
+      <c r="N82" s="17"/>
+    </row>
+    <row r="83" spans="3:14">
+      <c r="C83" s="3">
+        <v>91</v>
+      </c>
+      <c r="D83" s="12" t="s">
+        <v>857</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>859</v>
+      </c>
+      <c r="F83" s="3"/>
+      <c r="G83" s="3"/>
+      <c r="H83" s="3" t="s">
+        <v>863</v>
+      </c>
+      <c r="I83" s="3" t="s">
+        <v>865</v>
+      </c>
+      <c r="J83" s="3"/>
+      <c r="K83" s="3"/>
+      <c r="L83" s="3"/>
+      <c r="M83" s="3"/>
+      <c r="N83" s="17"/>
+    </row>
+    <row r="84" spans="3:14">
+      <c r="C84" s="3">
+        <v>92</v>
+      </c>
+      <c r="D84" s="12" t="s">
+        <v>857</v>
+      </c>
+      <c r="E84" s="3" t="s">
+        <v>859</v>
+      </c>
+      <c r="F84" s="3"/>
+      <c r="G84" s="3"/>
+      <c r="H84" s="3" t="s">
+        <v>863</v>
+      </c>
+      <c r="I84" s="3" t="s">
+        <v>866</v>
+      </c>
+      <c r="J84" s="3"/>
+      <c r="K84" s="3"/>
+      <c r="L84" s="3"/>
+      <c r="M84" s="3"/>
+      <c r="N84" s="17"/>
+    </row>
+    <row r="85" spans="3:14">
+      <c r="C85" s="3">
+        <v>93</v>
+      </c>
+      <c r="D85" s="12" t="s">
+        <v>857</v>
+      </c>
+      <c r="E85" s="3" t="s">
+        <v>859</v>
+      </c>
+      <c r="F85" s="3"/>
+      <c r="G85" s="3"/>
+      <c r="H85" s="3" t="s">
+        <v>863</v>
+      </c>
+      <c r="I85" s="3" t="s">
+        <v>867</v>
+      </c>
+      <c r="J85" s="3"/>
+      <c r="K85" s="3"/>
+      <c r="L85" s="3"/>
+      <c r="M85" s="3"/>
+      <c r="N85" s="17"/>
+    </row>
+    <row r="86" spans="3:14">
+      <c r="C86" s="3">
+        <v>94</v>
+      </c>
+      <c r="D86" s="12" t="s">
+        <v>857</v>
+      </c>
+      <c r="E86" s="3" t="s">
+        <v>859</v>
+      </c>
+      <c r="F86" s="3"/>
+      <c r="G86" s="3"/>
+      <c r="H86" s="3" t="s">
+        <v>863</v>
+      </c>
+      <c r="I86" s="3" t="s">
+        <v>868</v>
+      </c>
+      <c r="J86" s="3"/>
+      <c r="K86" s="3"/>
+      <c r="L86" s="3"/>
+      <c r="M86" s="3"/>
+      <c r="N86" s="17"/>
+    </row>
+    <row r="87" spans="3:14">
+      <c r="C87" s="3">
+        <v>95</v>
+      </c>
+      <c r="D87" s="14" t="s">
+        <v>869</v>
+      </c>
+      <c r="E87" s="3"/>
+      <c r="F87" s="3"/>
+      <c r="G87" s="3"/>
+      <c r="H87" s="3"/>
+      <c r="I87" s="3"/>
+      <c r="J87" s="3"/>
+      <c r="K87" s="3"/>
+      <c r="L87" s="3"/>
+      <c r="M87" s="3"/>
+      <c r="N87" s="17"/>
+    </row>
+    <row r="88" spans="3:14">
+      <c r="C88" s="3">
+        <v>96</v>
+      </c>
+      <c r="D88" s="12" t="s">
+        <v>856</v>
+      </c>
+      <c r="E88" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F88" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G88" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H88" s="3"/>
+      <c r="I88" s="3"/>
+      <c r="J88" s="3"/>
+      <c r="K88" s="3"/>
+      <c r="L88" s="3"/>
+      <c r="M88" s="3"/>
+      <c r="N88" s="17"/>
+    </row>
+    <row r="89" spans="3:14">
+      <c r="C89" s="3">
+        <v>97</v>
+      </c>
+      <c r="D89" s="12" t="s">
+        <v>856</v>
+      </c>
+      <c r="E89" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F89" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="G89" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H89" s="3"/>
+      <c r="I89" s="3"/>
+      <c r="J89" s="3"/>
+      <c r="K89" s="3"/>
+      <c r="L89" s="3"/>
+      <c r="M89" s="3"/>
+      <c r="N89" s="17"/>
+    </row>
+    <row r="90" spans="3:14">
+      <c r="C90" s="3">
+        <v>98</v>
+      </c>
+      <c r="D90" s="12" t="s">
+        <v>856</v>
+      </c>
+      <c r="E90" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F90" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="G90" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H90" s="3"/>
+      <c r="I90" s="3"/>
+      <c r="J90" s="3"/>
+      <c r="K90" s="3"/>
+      <c r="L90" s="3"/>
+      <c r="M90" s="3"/>
+      <c r="N90" s="17"/>
+    </row>
+    <row r="91" spans="3:14">
+      <c r="C91" s="3">
+        <v>99</v>
+      </c>
+      <c r="D91" s="12" t="s">
+        <v>856</v>
+      </c>
+      <c r="E91" s="5" t="s">
+        <v>747</v>
+      </c>
+      <c r="F91" s="3" t="s">
+        <v>740</v>
+      </c>
+      <c r="G91" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H91" s="5"/>
+      <c r="I91" s="3"/>
+      <c r="J91" s="3"/>
+      <c r="K91" s="3"/>
+      <c r="L91" s="3"/>
+      <c r="M91" s="3"/>
+      <c r="N91" s="17"/>
+    </row>
+    <row r="92" spans="3:14">
+      <c r="C92" s="3">
+        <v>100</v>
+      </c>
+      <c r="D92" s="12" t="s">
+        <v>856</v>
+      </c>
+      <c r="E92" s="5" t="s">
+        <v>747</v>
+      </c>
+      <c r="F92" s="3" t="s">
+        <v>748</v>
+      </c>
+      <c r="G92" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H92" s="3"/>
+      <c r="I92" s="3"/>
+      <c r="J92" s="3"/>
+      <c r="K92" s="3"/>
+      <c r="L92" s="3"/>
+      <c r="M92" s="3"/>
+      <c r="N92" s="17"/>
+    </row>
+    <row r="93" spans="3:14">
+      <c r="C93" s="3">
+        <v>101</v>
+      </c>
+      <c r="D93" s="12" t="s">
+        <v>856</v>
+      </c>
+      <c r="E93" s="5" t="s">
+        <v>747</v>
+      </c>
+      <c r="F93" s="3" t="s">
+        <v>749</v>
+      </c>
+      <c r="G93" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H93" s="3"/>
+      <c r="I93" s="3"/>
+      <c r="J93" s="3"/>
+      <c r="K93" s="3"/>
+      <c r="L93" s="3"/>
+      <c r="M93" s="3"/>
+      <c r="N93" s="17"/>
+    </row>
+    <row r="94" spans="3:14">
+      <c r="C94" s="3">
+        <v>102</v>
+      </c>
+      <c r="D94" s="12" t="s">
+        <v>856</v>
+      </c>
+      <c r="E94" s="5" t="s">
+        <v>747</v>
+      </c>
+      <c r="F94" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="G94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H94" s="3" t="s">
+        <v>870</v>
+      </c>
+      <c r="I94" s="3"/>
+      <c r="J94" s="3"/>
+      <c r="K94" s="3"/>
+      <c r="L94" s="3"/>
+      <c r="M94" s="3"/>
+      <c r="N94" s="17"/>
+    </row>
+    <row r="95" spans="3:14">
+      <c r="C95" s="3">
+        <v>103</v>
+      </c>
+      <c r="D95" s="12" t="s">
+        <v>856</v>
+      </c>
+      <c r="E95" s="5" t="s">
+        <v>747</v>
+      </c>
+      <c r="F95" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G95" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H95" s="3"/>
+      <c r="I95" s="3"/>
+      <c r="J95" s="3"/>
+      <c r="K95" s="3"/>
+      <c r="L95" s="3"/>
+      <c r="M95" s="3"/>
+      <c r="N95" s="17"/>
+    </row>
+    <row r="96" spans="3:14">
+      <c r="C96" s="3">
+        <v>104</v>
+      </c>
+      <c r="D96" s="12" t="s">
+        <v>857</v>
+      </c>
+      <c r="E96" s="5" t="s">
+        <v>858</v>
+      </c>
+      <c r="F96" s="3">
+        <v>10</v>
+      </c>
+      <c r="G96" s="3"/>
+      <c r="H96" s="3"/>
+      <c r="I96" s="3"/>
+      <c r="J96" s="3"/>
+      <c r="K96" s="3"/>
+      <c r="L96" s="3"/>
+      <c r="M96" s="3"/>
+      <c r="N96" s="17"/>
+    </row>
+    <row r="97" spans="3:14">
+      <c r="C97" s="3">
+        <v>105</v>
+      </c>
+      <c r="D97" s="12" t="s">
+        <v>856</v>
+      </c>
+      <c r="E97" s="5" t="s">
+        <v>750</v>
+      </c>
+      <c r="F97" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G97" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H97" s="3"/>
+      <c r="I97" s="3"/>
+      <c r="J97" s="3"/>
+      <c r="K97" s="3"/>
+      <c r="L97" s="3"/>
+      <c r="M97" s="3"/>
+      <c r="N97" s="17"/>
+    </row>
+    <row r="98" spans="3:14">
+      <c r="C98" s="3">
+        <v>106</v>
+      </c>
+      <c r="D98" s="12" t="s">
+        <v>857</v>
+      </c>
+      <c r="E98" s="3" t="s">
+        <v>859</v>
+      </c>
+      <c r="F98" s="3"/>
+      <c r="G98" s="3"/>
+      <c r="H98" s="3" t="s">
+        <v>870</v>
+      </c>
+      <c r="I98" s="3" t="s">
+        <v>860</v>
+      </c>
+      <c r="J98" s="3"/>
+      <c r="K98" s="3"/>
+      <c r="L98" s="3"/>
+      <c r="M98" s="3"/>
+      <c r="N98" s="17"/>
+    </row>
+    <row r="99" spans="3:14">
+      <c r="C99" s="3">
+        <v>107</v>
+      </c>
+      <c r="D99" s="12" t="s">
+        <v>857</v>
+      </c>
+      <c r="E99" s="3" t="s">
+        <v>859</v>
+      </c>
+      <c r="F99" s="3"/>
+      <c r="G99" s="3"/>
+      <c r="H99" s="3" t="s">
+        <v>870</v>
+      </c>
+      <c r="I99" s="3" t="s">
+        <v>861</v>
+      </c>
+      <c r="J99" s="3"/>
+      <c r="K99" s="3"/>
+      <c r="L99" s="3"/>
+      <c r="M99" s="3"/>
+      <c r="N99" s="17"/>
+    </row>
+    <row r="100" spans="3:14">
+      <c r="C100" s="3">
+        <v>108</v>
+      </c>
+      <c r="D100" s="12" t="s">
+        <v>857</v>
+      </c>
+      <c r="E100" s="3" t="s">
+        <v>859</v>
+      </c>
+      <c r="F100" s="3"/>
+      <c r="G100" s="3"/>
+      <c r="H100" s="3" t="s">
+        <v>870</v>
+      </c>
+      <c r="I100" s="3" t="s">
+        <v>864</v>
+      </c>
+      <c r="J100" s="3"/>
+      <c r="K100" s="3"/>
+      <c r="L100" s="3"/>
+      <c r="M100" s="3"/>
+      <c r="N100" s="17"/>
+    </row>
+    <row r="101" spans="3:14">
+      <c r="C101" s="3">
+        <v>109</v>
+      </c>
+      <c r="D101" s="12" t="s">
+        <v>857</v>
+      </c>
+      <c r="E101" s="3" t="s">
+        <v>859</v>
+      </c>
+      <c r="F101" s="3"/>
+      <c r="G101" s="3"/>
+      <c r="H101" s="3" t="s">
+        <v>870</v>
+      </c>
+      <c r="I101" s="3" t="s">
+        <v>865</v>
+      </c>
+      <c r="J101" s="3"/>
+      <c r="K101" s="3"/>
+      <c r="L101" s="3"/>
+      <c r="M101" s="3"/>
+      <c r="N101" s="17"/>
+    </row>
+    <row r="102" spans="3:14">
+      <c r="C102" s="3">
+        <v>110</v>
+      </c>
+      <c r="D102" s="12" t="s">
+        <v>857</v>
+      </c>
+      <c r="E102" s="3" t="s">
+        <v>859</v>
+      </c>
+      <c r="F102" s="3"/>
+      <c r="G102" s="3"/>
+      <c r="H102" s="3" t="s">
+        <v>870</v>
+      </c>
+      <c r="I102" s="3" t="s">
+        <v>866</v>
+      </c>
+      <c r="J102" s="3"/>
+      <c r="K102" s="3"/>
+      <c r="L102" s="3"/>
+      <c r="M102" s="3"/>
+      <c r="N102" s="17"/>
+    </row>
+    <row r="103" spans="3:14">
+      <c r="C103" s="3">
+        <v>111</v>
+      </c>
+      <c r="D103" s="12" t="s">
+        <v>857</v>
+      </c>
+      <c r="E103" s="3" t="s">
+        <v>859</v>
+      </c>
+      <c r="F103" s="3"/>
+      <c r="G103" s="3"/>
+      <c r="H103" s="3" t="s">
+        <v>870</v>
+      </c>
+      <c r="I103" s="3" t="s">
+        <v>867</v>
+      </c>
+      <c r="J103" s="3"/>
+      <c r="K103" s="3"/>
+      <c r="L103" s="3"/>
+      <c r="M103" s="3"/>
+      <c r="N103" s="17"/>
+    </row>
+    <row r="104" spans="3:14">
+      <c r="C104" s="3">
+        <v>112</v>
+      </c>
+      <c r="D104" s="12" t="s">
+        <v>857</v>
+      </c>
+      <c r="E104" s="3" t="s">
+        <v>859</v>
+      </c>
+      <c r="F104" s="3"/>
+      <c r="G104" s="3"/>
+      <c r="H104" s="3" t="s">
+        <v>870</v>
+      </c>
+      <c r="I104" s="3" t="s">
+        <v>868</v>
+      </c>
+      <c r="J104" s="3"/>
+      <c r="K104" s="3"/>
+      <c r="L104" s="3"/>
+      <c r="M104" s="3"/>
+      <c r="N104" s="17"/>
+    </row>
+    <row r="105" spans="3:14">
+      <c r="C105" s="3">
+        <v>113</v>
+      </c>
+      <c r="D105" s="14" t="s">
+        <v>871</v>
+      </c>
+      <c r="E105" s="3"/>
+      <c r="F105" s="3"/>
+      <c r="G105" s="3"/>
+      <c r="H105" s="3"/>
+      <c r="I105" s="3"/>
+      <c r="J105" s="3"/>
+      <c r="K105" s="3"/>
+      <c r="L105" s="3"/>
+      <c r="M105" s="3"/>
+      <c r="N105" s="17"/>
+    </row>
+    <row r="106" spans="3:14">
+      <c r="C106" s="3">
+        <v>114</v>
+      </c>
+      <c r="D106" s="12" t="s">
+        <v>856</v>
+      </c>
+      <c r="E106" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F106" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G106" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H106" s="3"/>
+      <c r="I106" s="3"/>
+      <c r="J106" s="3"/>
+      <c r="K106" s="3"/>
+      <c r="L106" s="3"/>
+      <c r="M106" s="3"/>
+      <c r="N106" s="17"/>
+    </row>
+    <row r="107" spans="3:14">
+      <c r="C107" s="3">
+        <v>115</v>
+      </c>
+      <c r="D107" s="12" t="s">
+        <v>856</v>
+      </c>
+      <c r="E107" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F107" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="G107" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H107" s="3"/>
+      <c r="I107" s="3"/>
+      <c r="J107" s="3"/>
+      <c r="K107" s="3"/>
+      <c r="L107" s="3"/>
+      <c r="M107" s="3"/>
+      <c r="N107" s="17"/>
+    </row>
+    <row r="108" spans="3:14">
+      <c r="C108" s="3">
+        <v>116</v>
+      </c>
+      <c r="D108" s="12" t="s">
+        <v>856</v>
+      </c>
+      <c r="E108" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F108" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="G108" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H108" s="3"/>
+      <c r="I108" s="3"/>
+      <c r="J108" s="3"/>
+      <c r="K108" s="3"/>
+      <c r="L108" s="3"/>
+      <c r="M108" s="3"/>
+      <c r="N108" s="17"/>
+    </row>
+    <row r="109" spans="3:14">
+      <c r="C109" s="3">
+        <v>117</v>
+      </c>
+      <c r="D109" s="12" t="s">
+        <v>856</v>
+      </c>
+      <c r="E109" s="5" t="s">
+        <v>747</v>
+      </c>
+      <c r="F109" s="3" t="s">
+        <v>739</v>
+      </c>
+      <c r="G109" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H109" s="5"/>
+      <c r="I109" s="3"/>
+      <c r="J109" s="3"/>
+      <c r="K109" s="3"/>
+      <c r="L109" s="3"/>
+      <c r="M109" s="3"/>
+      <c r="N109" s="17"/>
+    </row>
+    <row r="110" spans="3:14">
+      <c r="C110" s="3">
+        <v>118</v>
+      </c>
+      <c r="D110" s="12" t="s">
+        <v>856</v>
+      </c>
+      <c r="E110" s="5" t="s">
+        <v>747</v>
+      </c>
+      <c r="F110" s="3" t="s">
+        <v>748</v>
+      </c>
+      <c r="G110" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H110" s="3"/>
+      <c r="I110" s="3"/>
+      <c r="J110" s="3"/>
+      <c r="K110" s="3"/>
+      <c r="L110" s="3"/>
+      <c r="M110" s="3"/>
+      <c r="N110" s="17"/>
+    </row>
+    <row r="111" spans="3:14">
+      <c r="C111" s="3">
+        <v>119</v>
+      </c>
+      <c r="D111" s="12" t="s">
+        <v>856</v>
+      </c>
+      <c r="E111" s="5" t="s">
+        <v>747</v>
+      </c>
+      <c r="F111" s="3" t="s">
+        <v>749</v>
+      </c>
+      <c r="G111" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H111" s="3"/>
+      <c r="I111" s="3"/>
+      <c r="J111" s="3"/>
+      <c r="K111" s="3"/>
+      <c r="L111" s="3"/>
+      <c r="M111" s="3"/>
+      <c r="N111" s="17"/>
+    </row>
+    <row r="112" spans="3:14">
+      <c r="C112" s="3">
+        <v>120</v>
+      </c>
+      <c r="D112" s="12" t="s">
+        <v>856</v>
+      </c>
+      <c r="E112" s="5" t="s">
+        <v>747</v>
+      </c>
+      <c r="F112" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="G112" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H112" s="3" t="s">
+        <v>872</v>
+      </c>
+      <c r="I112" s="3"/>
+      <c r="J112" s="3"/>
+      <c r="K112" s="3"/>
+      <c r="L112" s="3"/>
+      <c r="M112" s="3"/>
+      <c r="N112" s="17"/>
+    </row>
+    <row r="113" spans="3:14">
+      <c r="C113" s="3">
+        <v>121</v>
+      </c>
+      <c r="D113" s="12" t="s">
+        <v>856</v>
+      </c>
+      <c r="E113" s="5" t="s">
+        <v>747</v>
+      </c>
+      <c r="F113" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G113" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H113" s="3"/>
+      <c r="I113" s="3"/>
+      <c r="J113" s="3"/>
+      <c r="K113" s="3"/>
+      <c r="L113" s="3"/>
+      <c r="M113" s="3"/>
+      <c r="N113" s="17"/>
+    </row>
+    <row r="114" spans="3:14">
+      <c r="C114" s="3">
+        <v>122</v>
+      </c>
+      <c r="D114" s="12" t="s">
+        <v>857</v>
+      </c>
+      <c r="E114" s="5" t="s">
+        <v>858</v>
+      </c>
+      <c r="F114" s="3">
+        <v>10</v>
+      </c>
+      <c r="G114" s="3"/>
+      <c r="H114" s="3"/>
+      <c r="I114" s="3"/>
+      <c r="J114" s="3"/>
+      <c r="K114" s="3"/>
+      <c r="L114" s="3"/>
+      <c r="M114" s="3"/>
+      <c r="N114" s="17"/>
+    </row>
+    <row r="115" spans="3:14">
+      <c r="C115" s="3">
+        <v>123</v>
+      </c>
+      <c r="D115" s="12" t="s">
+        <v>856</v>
+      </c>
+      <c r="E115" s="5" t="s">
+        <v>750</v>
+      </c>
+      <c r="F115" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G115" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H115" s="3"/>
+      <c r="I115" s="3"/>
+      <c r="J115" s="3"/>
+      <c r="K115" s="3"/>
+      <c r="L115" s="3"/>
+      <c r="M115" s="3"/>
+      <c r="N115" s="17"/>
+    </row>
+    <row r="116" spans="3:14">
+      <c r="C116" s="3">
+        <v>124</v>
+      </c>
+      <c r="D116" s="12" t="s">
+        <v>857</v>
+      </c>
+      <c r="E116" s="3" t="s">
+        <v>859</v>
+      </c>
+      <c r="F116" s="3"/>
+      <c r="G116" s="3"/>
+      <c r="H116" s="3" t="s">
+        <v>872</v>
+      </c>
+      <c r="I116" s="3" t="s">
+        <v>860</v>
+      </c>
+      <c r="J116" s="3"/>
+      <c r="K116" s="3"/>
+      <c r="L116" s="3"/>
+      <c r="M116" s="3"/>
+      <c r="N116" s="17"/>
+    </row>
+    <row r="117" spans="3:14">
+      <c r="C117" s="3">
+        <v>125</v>
+      </c>
+      <c r="D117" s="12" t="s">
+        <v>857</v>
+      </c>
+      <c r="E117" s="3" t="s">
+        <v>859</v>
+      </c>
+      <c r="F117" s="3"/>
+      <c r="G117" s="3"/>
+      <c r="H117" s="3" t="s">
+        <v>872</v>
+      </c>
+      <c r="I117" s="3" t="s">
+        <v>861</v>
+      </c>
+      <c r="J117" s="3"/>
+      <c r="K117" s="3"/>
+      <c r="L117" s="3"/>
+      <c r="M117" s="3"/>
+      <c r="N117" s="17"/>
+    </row>
+    <row r="118" spans="3:14">
+      <c r="C118" s="3">
+        <v>126</v>
+      </c>
+      <c r="D118" s="12" t="s">
+        <v>857</v>
+      </c>
+      <c r="E118" s="3" t="s">
+        <v>859</v>
+      </c>
+      <c r="F118" s="3"/>
+      <c r="G118" s="3"/>
+      <c r="H118" s="3" t="s">
+        <v>872</v>
+      </c>
+      <c r="I118" s="3" t="s">
+        <v>864</v>
+      </c>
+      <c r="J118" s="3"/>
+      <c r="K118" s="3"/>
+      <c r="L118" s="3"/>
+      <c r="M118" s="3"/>
+      <c r="N118" s="17"/>
+    </row>
+    <row r="119" spans="3:14">
+      <c r="C119" s="3">
+        <v>127</v>
+      </c>
+      <c r="D119" s="12" t="s">
+        <v>857</v>
+      </c>
+      <c r="E119" s="3" t="s">
+        <v>859</v>
+      </c>
+      <c r="F119" s="3"/>
+      <c r="G119" s="3"/>
+      <c r="H119" s="3" t="s">
+        <v>872</v>
+      </c>
+      <c r="I119" s="3" t="s">
+        <v>865</v>
+      </c>
+      <c r="J119" s="3"/>
+      <c r="K119" s="3"/>
+      <c r="L119" s="3"/>
+      <c r="M119" s="3"/>
+      <c r="N119" s="17"/>
+    </row>
+    <row r="120" spans="3:14">
+      <c r="C120" s="3">
+        <v>128</v>
+      </c>
+      <c r="D120" s="12" t="s">
+        <v>857</v>
+      </c>
+      <c r="E120" s="3" t="s">
+        <v>859</v>
+      </c>
+      <c r="F120" s="3"/>
+      <c r="G120" s="3"/>
+      <c r="H120" s="3" t="s">
+        <v>872</v>
+      </c>
+      <c r="I120" s="3" t="s">
+        <v>866</v>
+      </c>
+      <c r="J120" s="3"/>
+      <c r="K120" s="3"/>
+      <c r="L120" s="3"/>
+      <c r="M120" s="3"/>
+      <c r="N120" s="17"/>
+    </row>
+    <row r="121" spans="3:14">
+      <c r="C121" s="3">
+        <v>129</v>
+      </c>
+      <c r="D121" s="12" t="s">
+        <v>857</v>
+      </c>
+      <c r="E121" s="3" t="s">
+        <v>859</v>
+      </c>
+      <c r="F121" s="3"/>
+      <c r="G121" s="3"/>
+      <c r="H121" s="3" t="s">
+        <v>872</v>
+      </c>
+      <c r="I121" s="3" t="s">
+        <v>867</v>
+      </c>
+      <c r="J121" s="3"/>
+      <c r="K121" s="3"/>
+      <c r="L121" s="3"/>
+      <c r="M121" s="3"/>
+      <c r="N121" s="17"/>
+    </row>
+    <row r="122" spans="3:14">
+      <c r="C122" s="3">
+        <v>130</v>
+      </c>
+      <c r="D122" s="12" t="s">
+        <v>857</v>
+      </c>
+      <c r="E122" s="3" t="s">
+        <v>859</v>
+      </c>
+      <c r="F122" s="3"/>
+      <c r="G122" s="3"/>
+      <c r="H122" s="3" t="s">
+        <v>872</v>
+      </c>
+      <c r="I122" s="3" t="s">
+        <v>868</v>
+      </c>
+      <c r="J122" s="3"/>
+      <c r="K122" s="3"/>
+      <c r="L122" s="3"/>
+      <c r="M122" s="3"/>
+      <c r="N122" s="17"/>
+    </row>
+    <row r="123" spans="3:14">
+      <c r="C123" s="3">
+        <v>131</v>
+      </c>
+      <c r="D123" s="14" t="s">
+        <v>833</v>
+      </c>
+      <c r="E123" s="5"/>
+      <c r="F123" s="3"/>
+      <c r="G123" s="3"/>
+      <c r="H123" s="3"/>
+      <c r="I123" s="3"/>
+      <c r="J123" s="3"/>
+      <c r="K123" s="3"/>
+      <c r="L123" s="3"/>
+      <c r="M123" s="3"/>
+      <c r="N123" s="17"/>
+    </row>
+    <row r="124" spans="3:14">
+      <c r="C124" s="3">
+        <v>132</v>
+      </c>
+      <c r="D124" s="12" t="s">
+        <v>857</v>
+      </c>
+      <c r="E124" s="5" t="s">
+        <v>858</v>
+      </c>
+      <c r="F124" s="3">
+        <v>5</v>
+      </c>
+      <c r="G124" s="3"/>
+      <c r="H124" s="3"/>
+      <c r="I124" s="3"/>
+      <c r="J124" s="3"/>
+      <c r="K124" s="3"/>
+      <c r="L124" s="3"/>
+      <c r="M124" s="3"/>
+      <c r="N124" s="17"/>
+    </row>
+    <row r="125" spans="3:14">
+      <c r="C125" s="3">
+        <v>133</v>
+      </c>
+      <c r="D125" s="12" t="s">
+        <v>830</v>
+      </c>
+      <c r="E125" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F125" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G125" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H125" s="5"/>
+      <c r="I125" s="5"/>
+      <c r="J125" s="3"/>
+      <c r="K125" s="3"/>
+      <c r="L125" s="3"/>
+      <c r="M125" s="3"/>
+      <c r="N125" s="17"/>
+    </row>
+    <row r="126" spans="3:14">
+      <c r="C126" s="3">
+        <v>134</v>
+      </c>
+      <c r="D126" s="12" t="s">
+        <v>836</v>
+      </c>
+      <c r="E126" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F126" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="G126" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H126" s="5"/>
+      <c r="I126" s="5"/>
+      <c r="J126" s="3"/>
+      <c r="K126" s="3"/>
+      <c r="L126" s="3"/>
+      <c r="M126" s="3"/>
+      <c r="N126" s="17"/>
+    </row>
+    <row r="127" spans="3:14">
+      <c r="C127" s="3">
+        <v>135</v>
+      </c>
+      <c r="D127" s="12" t="s">
+        <v>836</v>
+      </c>
+      <c r="E127" s="5" t="s">
+        <v>837</v>
+      </c>
+      <c r="F127" s="3" t="s">
+        <v>621</v>
+      </c>
+      <c r="G127" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H127" s="3" t="s">
+        <v>834</v>
+      </c>
+      <c r="I127" s="3"/>
+      <c r="J127" s="3"/>
+      <c r="K127" s="3"/>
+      <c r="L127" s="3"/>
+      <c r="M127" s="3"/>
+      <c r="N127" s="17"/>
+    </row>
+    <row r="128" spans="3:14" ht="16.5">
+      <c r="C128" s="3">
+        <v>136</v>
+      </c>
+      <c r="D128" s="12" t="s">
+        <v>836</v>
+      </c>
+      <c r="E128" s="5" t="s">
+        <v>837</v>
+      </c>
+      <c r="F128" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="G128" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H128" s="18"/>
+      <c r="I128" s="3"/>
+      <c r="J128" s="3"/>
+      <c r="K128" s="3"/>
+      <c r="L128" s="3"/>
+      <c r="M128" s="3"/>
+      <c r="N128" s="17"/>
+    </row>
+    <row r="129" spans="3:14">
+      <c r="C129" s="3">
+        <v>137</v>
+      </c>
+      <c r="D129" s="12" t="s">
+        <v>836</v>
+      </c>
+      <c r="E129" s="3" t="s">
+        <v>628</v>
+      </c>
+      <c r="F129" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="G129" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H129" s="5"/>
+      <c r="I129" s="3"/>
+      <c r="J129" s="3"/>
+      <c r="K129" s="3"/>
+      <c r="L129" s="3"/>
+      <c r="M129" s="3"/>
+      <c r="N129" s="17"/>
+    </row>
+    <row r="130" spans="3:14">
+      <c r="C130" s="3">
+        <v>138</v>
+      </c>
+      <c r="D130" s="12" t="s">
+        <v>836</v>
+      </c>
+      <c r="E130" s="5" t="s">
+        <v>837</v>
+      </c>
+      <c r="F130" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="G130" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H130" s="5"/>
+      <c r="I130" s="5"/>
+      <c r="J130" s="3"/>
+      <c r="K130" s="3"/>
+      <c r="L130" s="3"/>
+      <c r="M130" s="3"/>
+      <c r="N130" s="17"/>
+    </row>
+    <row r="131" spans="3:14">
+      <c r="C131" s="3">
+        <v>139</v>
+      </c>
+      <c r="D131" s="12" t="s">
+        <v>836</v>
+      </c>
+      <c r="E131" s="5" t="s">
+        <v>837</v>
+      </c>
+      <c r="F131" s="3" t="s">
+        <v>621</v>
+      </c>
+      <c r="G131" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H131" s="3" t="s">
+        <v>834</v>
+      </c>
+      <c r="I131" s="3"/>
+      <c r="J131" s="3"/>
+      <c r="K131" s="3"/>
+      <c r="L131" s="3"/>
+      <c r="M131" s="3"/>
+      <c r="N131" s="15" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="132" spans="3:14" ht="16.5">
+      <c r="C132" s="3">
+        <v>140</v>
+      </c>
+      <c r="D132" s="12" t="s">
+        <v>836</v>
+      </c>
+      <c r="E132" s="5" t="s">
+        <v>837</v>
+      </c>
+      <c r="F132" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="G132" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H132" s="16"/>
+      <c r="I132" s="3"/>
+      <c r="J132" s="3"/>
+      <c r="K132" s="3"/>
+      <c r="L132" s="3"/>
+      <c r="M132" s="3"/>
+      <c r="N132" s="15" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="133" spans="3:14">
+      <c r="C133" s="3">
+        <v>141</v>
+      </c>
+      <c r="D133" s="12" t="s">
+        <v>836</v>
+      </c>
+      <c r="E133" s="3" t="s">
+        <v>628</v>
+      </c>
+      <c r="F133" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="G133" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H133" s="5"/>
+      <c r="I133" s="3"/>
+      <c r="J133" s="3"/>
+      <c r="K133" s="3"/>
+      <c r="L133" s="3"/>
+      <c r="M133" s="3"/>
+      <c r="N133" s="15" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="134" spans="3:14">
+      <c r="C134" s="3">
+        <v>142</v>
+      </c>
+      <c r="D134" s="12" t="s">
+        <v>836</v>
+      </c>
+      <c r="E134" s="5" t="s">
+        <v>837</v>
+      </c>
+      <c r="F134" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="G134" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H134" s="5"/>
+      <c r="I134" s="5"/>
+      <c r="J134" s="3"/>
+      <c r="K134" s="3"/>
+      <c r="L134" s="3"/>
+      <c r="M134" s="3"/>
+      <c r="N134" s="15" t="s">
+        <v>835</v>
+      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="N2:N48">
-    <cfRule type="cellIs" dxfId="1" priority="1" stopIfTrue="1" operator="equal">
+  <phoneticPr fontId="5" type="noConversion"/>
+  <conditionalFormatting sqref="N2:N134">
+    <cfRule type="cellIs" dxfId="7" priority="21" stopIfTrue="1" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="2" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="22" stopIfTrue="1" operator="equal">
+      <formula>"Pass"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N127:N134">
+    <cfRule type="cellIs" dxfId="5" priority="7" stopIfTrue="1" operator="equal">
+      <formula>"Fail"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="8" stopIfTrue="1" operator="equal">
+      <formula>"Pass"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N127:N134">
+    <cfRule type="cellIs" dxfId="3" priority="5" stopIfTrue="1" operator="equal">
+      <formula>"Fail"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="6" stopIfTrue="1" operator="equal">
+      <formula>"Pass"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N131:N133">
+    <cfRule type="cellIs" dxfId="1" priority="3" stopIfTrue="1" operator="equal">
+      <formula>"Fail"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="4" stopIfTrue="1" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D20:D28">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E123:E134 E87:E97 E105:E115 E2:E79">
+      <formula1>Forms</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D125 D3:D4 D6:D67">
       <formula1>"C,F,T,;"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G5 G13:G15 G7:G9 G11 G20:G50">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G132:G134 G128:G130 G2:G126">
       <formula1>INDIRECT(SUBSTITUTE(E2&amp;F2," ",""))</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F12 F14:F15 F20:F50">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F134">
       <formula1>OFFSET(INDIRECT($E2),0,0,COUNTA(INDIRECT(E2&amp;"Col")),1)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E3 E8:E50">
-      <formula1>Forms</formula1>
-    </dataValidation>
   </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="H75" r:id="rId1" display="nform@tesitng.com; nformG2"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -5710,7 +7537,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:85">
       <c r="A1" t="s">
@@ -9608,7 +11435,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -9619,7 +11446,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:1066">
       <c r="A1" t="s">
@@ -28666,7 +30493,260 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B44"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="16.7109375" customWidth="1"/>
+    <col min="2" max="2" width="28.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>818</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="2" t="s">
+        <v>820</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="2" t="s">
+        <v>822</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="2" t="s">
+        <v>824</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="2" t="s">
+        <v>826</v>
+      </c>
+      <c r="B5" s="7">
+        <v>40864</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="2" t="s">
+        <v>827</v>
+      </c>
+      <c r="B6" s="7">
+        <v>41045</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="2" t="s">
+        <v>803</v>
+      </c>
+      <c r="B7" s="4">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="2" t="s">
+        <v>828</v>
+      </c>
+      <c r="B8" s="4"/>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="2" t="s">
+        <v>804</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="9"/>
+      <c r="B10" s="10"/>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="2" t="s">
+        <v>806</v>
+      </c>
+      <c r="B11" s="11"/>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="2" t="s">
+        <v>807</v>
+      </c>
+      <c r="B12" s="11"/>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="2" t="s">
+        <v>808</v>
+      </c>
+      <c r="B13" s="11"/>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="2" t="s">
+        <v>809</v>
+      </c>
+      <c r="B14" s="11"/>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="2" t="s">
+        <v>810</v>
+      </c>
+      <c r="B15" s="11"/>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="2" t="s">
+        <v>811</v>
+      </c>
+      <c r="B16" s="11"/>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="2"/>
+      <c r="B17" s="11" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="2"/>
+      <c r="B18" s="11" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="2" t="s">
+        <v>814</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="2" t="s">
+        <v>815</v>
+      </c>
+      <c r="B20" s="11"/>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="2" t="s">
+        <v>816</v>
+      </c>
+      <c r="B21" s="11"/>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="13"/>
+      <c r="B22" s="13"/>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="13"/>
+      <c r="B23" s="13"/>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="13"/>
+      <c r="B24" s="13"/>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="13"/>
+      <c r="B25" s="13"/>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="13"/>
+      <c r="B26" s="13"/>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="13"/>
+      <c r="B27" s="13"/>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="13"/>
+      <c r="B28" s="13"/>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="13"/>
+      <c r="B29" s="13"/>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="13"/>
+      <c r="B30" s="13"/>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="13"/>
+      <c r="B31" s="13"/>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="13"/>
+      <c r="B32" s="13"/>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="13"/>
+      <c r="B33" s="13"/>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="13"/>
+      <c r="B34" s="13"/>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="13"/>
+      <c r="B35" s="13"/>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="13"/>
+      <c r="B36" s="13"/>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="13"/>
+      <c r="B37" s="13"/>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="13"/>
+      <c r="B38" s="13"/>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="13"/>
+      <c r="B39" s="13"/>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" s="13"/>
+      <c r="B40" s="13"/>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="13"/>
+      <c r="B41" s="13"/>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="13"/>
+      <c r="B42" s="13"/>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="13"/>
+      <c r="B43" s="13"/>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" s="13"/>
+      <c r="B44" s="13"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/NformTester/NformTester/keywordscripts/TestScripts.xlsx
+++ b/NformTester/NformTester/keywordscripts/TestScripts.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="105" windowWidth="15480" windowHeight="9570"/>
@@ -1255,12 +1255,12 @@
     <definedName name="VerifyTxtfileValues">'Form DataValDepend'!$CH$1</definedName>
     <definedName name="VerifyTxtfileValuesCol">'Form DataValDepend'!$CH:$CH</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7901" uniqueCount="880">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7910" uniqueCount="881">
   <si>
     <t>FormLogin_to_LiebertR_Nform</t>
   </si>
@@ -3928,6 +3928,10 @@
   </si>
   <si>
     <t>"C:\Nform\test.txt"</t>
+  </si>
+  <si>
+    <t>Running Range</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -3938,7 +3942,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -3946,34 +3950,34 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -3981,8 +3985,8 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <name val="宋体"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -4137,7 +4141,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4197,12 +4201,16 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="1"/>
     <cellStyle name="常规 2 2" xfId="3"/>
+    <cellStyle name="超链接" xfId="2" builtinId="8"/>
   </cellStyles>
   <dxfs count="8">
     <dxf>
@@ -4267,7 +4275,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -4553,24 +4561,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O134"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="16.7109375" style="19" customWidth="1"/>
-    <col min="2" max="2" width="28.42578125" style="19" customWidth="1"/>
-    <col min="5" max="5" width="29.7109375" customWidth="1"/>
-    <col min="6" max="6" width="29.28515625" customWidth="1"/>
+    <col min="1" max="1" width="16.75" style="19" customWidth="1"/>
+    <col min="2" max="2" width="28.375" style="19" customWidth="1"/>
+    <col min="5" max="5" width="29.75" customWidth="1"/>
+    <col min="6" max="6" width="29.25" customWidth="1"/>
     <col min="7" max="7" width="15" customWidth="1"/>
-    <col min="8" max="8" width="34.140625" customWidth="1"/>
-    <col min="9" max="9" width="31.85546875" customWidth="1"/>
-    <col min="11" max="11" width="10.140625" customWidth="1"/>
-    <col min="12" max="12" width="13.7109375" customWidth="1"/>
+    <col min="8" max="8" width="34.125" customWidth="1"/>
+    <col min="9" max="9" width="31.875" customWidth="1"/>
+    <col min="11" max="11" width="10.125" customWidth="1"/>
+    <col min="12" max="12" width="13.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="25.5">
+    <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
         <v>818</v>
       </c>
@@ -4614,7 +4622,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:15" ht="15">
       <c r="A2" s="2" t="s">
         <v>820</v>
       </c>
@@ -4689,7 +4697,7 @@
         <v>799</v>
       </c>
       <c r="F4" s="3">
-        <v>60</v>
+        <v>4</v>
       </c>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
@@ -4700,7 +4708,7 @@
       <c r="M4" s="3"/>
       <c r="N4" s="17"/>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:15" ht="15">
       <c r="A5" s="2" t="s">
         <v>826</v>
       </c>
@@ -4769,7 +4777,7 @@
         <v>803</v>
       </c>
       <c r="B7" s="4">
-        <v>65</v>
+        <v>4</v>
       </c>
       <c r="C7" s="3">
         <v>6</v>
@@ -4797,9 +4805,9 @@
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="2" t="s">
-        <v>828</v>
-      </c>
-      <c r="B8" s="4"/>
+        <v>880</v>
+      </c>
+      <c r="B8" s="6"/>
       <c r="C8" s="3">
         <v>7</v>
       </c>
@@ -4826,11 +4834,9 @@
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="2" t="s">
-        <v>804</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>805</v>
-      </c>
+        <v>828</v>
+      </c>
+      <c r="B9" s="4"/>
       <c r="C9" s="3">
         <v>8</v>
       </c>
@@ -4860,8 +4866,12 @@
       <c r="O9" s="20"/>
     </row>
     <row r="10" spans="1:15">
-      <c r="A10" s="9"/>
-      <c r="B10" s="10"/>
+      <c r="A10" s="2" t="s">
+        <v>804</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>805</v>
+      </c>
       <c r="C10" s="3">
         <v>9</v>
       </c>
@@ -4885,10 +4895,8 @@
       <c r="O10" s="20"/>
     </row>
     <row r="11" spans="1:15">
-      <c r="A11" s="2" t="s">
-        <v>806</v>
-      </c>
-      <c r="B11" s="11"/>
+      <c r="A11" s="9"/>
+      <c r="B11" s="10"/>
       <c r="C11" s="3">
         <v>10</v>
       </c>
@@ -4915,7 +4923,7 @@
     </row>
     <row r="12" spans="1:15">
       <c r="A12" s="2" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="B12" s="11"/>
       <c r="C12" s="3">
@@ -4945,10 +4953,10 @@
       <c r="O12" s="20"/>
     </row>
     <row r="13" spans="1:15">
-      <c r="A13" s="2" t="s">
-        <v>808</v>
-      </c>
-      <c r="B13" s="11"/>
+      <c r="A13" s="25" t="s">
+        <v>807</v>
+      </c>
+      <c r="B13" s="26"/>
       <c r="C13" s="3">
         <v>12</v>
       </c>
@@ -4976,10 +4984,10 @@
       <c r="O13" s="20"/>
     </row>
     <row r="14" spans="1:15">
-      <c r="A14" s="2" t="s">
-        <v>809</v>
-      </c>
-      <c r="B14" s="11"/>
+      <c r="A14" s="25" t="s">
+        <v>808</v>
+      </c>
+      <c r="B14" s="26"/>
       <c r="C14" s="3">
         <v>13</v>
       </c>
@@ -5005,10 +5013,12 @@
       <c r="O14" s="20"/>
     </row>
     <row r="15" spans="1:15">
-      <c r="A15" s="13"/>
-      <c r="B15" s="13"/>
+      <c r="A15" s="25" t="s">
+        <v>809</v>
+      </c>
+      <c r="B15" s="26"/>
       <c r="C15" s="3">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="D15" s="23" t="s">
         <v>830</v>
@@ -5032,10 +5042,12 @@
       <c r="O15" s="20"/>
     </row>
     <row r="16" spans="1:15">
-      <c r="A16" s="13"/>
-      <c r="B16" s="13"/>
+      <c r="A16" s="25" t="s">
+        <v>810</v>
+      </c>
+      <c r="B16" s="26"/>
       <c r="C16" s="3">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="D16" s="23" t="s">
         <v>830</v>
@@ -5059,10 +5071,12 @@
       <c r="O16" s="20"/>
     </row>
     <row r="17" spans="1:15">
-      <c r="A17" s="13"/>
-      <c r="B17" s="13"/>
+      <c r="A17" s="25" t="s">
+        <v>811</v>
+      </c>
+      <c r="B17" s="26"/>
       <c r="C17" s="3">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="D17" s="23" t="s">
         <v>830</v>
@@ -5088,10 +5102,12 @@
       <c r="O17" s="20"/>
     </row>
     <row r="18" spans="1:15">
-      <c r="A18" s="13"/>
-      <c r="B18" s="13"/>
+      <c r="A18" s="25"/>
+      <c r="B18" s="26" t="s">
+        <v>812</v>
+      </c>
       <c r="C18" s="3">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="D18" s="23" t="s">
         <v>830</v>
@@ -5117,10 +5133,12 @@
       <c r="O18" s="20"/>
     </row>
     <row r="19" spans="1:15">
-      <c r="A19" s="13"/>
-      <c r="B19" s="13"/>
+      <c r="A19" s="25"/>
+      <c r="B19" s="26" t="s">
+        <v>813</v>
+      </c>
       <c r="C19" s="3">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="D19" s="23" t="s">
         <v>830</v>
@@ -5146,10 +5164,14 @@
       <c r="O19" s="20"/>
     </row>
     <row r="20" spans="1:15">
-      <c r="A20" s="13"/>
-      <c r="B20" s="13"/>
+      <c r="A20" s="25" t="s">
+        <v>814</v>
+      </c>
+      <c r="B20" s="26" t="s">
+        <v>805</v>
+      </c>
       <c r="C20" s="3">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="D20" s="23" t="s">
         <v>830</v>
@@ -5175,10 +5197,12 @@
       <c r="O20" s="20"/>
     </row>
     <row r="21" spans="1:15">
-      <c r="A21" s="13"/>
-      <c r="B21" s="13"/>
+      <c r="A21" s="25" t="s">
+        <v>815</v>
+      </c>
+      <c r="B21" s="26"/>
       <c r="C21" s="3">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="D21" s="23" t="s">
         <v>830</v>
@@ -5204,10 +5228,12 @@
       <c r="O21" s="20"/>
     </row>
     <row r="22" spans="1:15">
-      <c r="A22" s="13"/>
-      <c r="B22" s="13"/>
+      <c r="A22" s="25" t="s">
+        <v>816</v>
+      </c>
+      <c r="B22" s="26"/>
       <c r="C22" s="3">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="D22" s="23" t="s">
         <v>832</v>
@@ -5232,7 +5258,7 @@
       <c r="A23" s="13"/>
       <c r="B23" s="13"/>
       <c r="C23" s="3">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="D23" s="23" t="s">
         <v>830</v>
@@ -5259,7 +5285,7 @@
       <c r="A24" s="13"/>
       <c r="B24" s="13"/>
       <c r="C24" s="3">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="D24" s="23" t="s">
         <v>832</v>
@@ -5281,6 +5307,8 @@
       <c r="O24" s="20"/>
     </row>
     <row r="25" spans="1:15">
+      <c r="A25" s="13"/>
+      <c r="B25" s="13"/>
       <c r="C25" s="3"/>
       <c r="D25" s="12"/>
       <c r="E25" s="3"/>
@@ -5882,7 +5910,7 @@
       <c r="M67" s="3"/>
       <c r="N67" s="17"/>
     </row>
-    <row r="68" spans="3:14">
+    <row r="68" spans="3:14" ht="15">
       <c r="C68" s="3">
         <v>76</v>
       </c>
@@ -6332,7 +6360,7 @@
       <c r="M86" s="3"/>
       <c r="N86" s="17"/>
     </row>
-    <row r="87" spans="3:14">
+    <row r="87" spans="3:14" ht="15">
       <c r="C87" s="3">
         <v>95</v>
       </c>
@@ -6758,7 +6786,7 @@
       <c r="M104" s="3"/>
       <c r="N104" s="17"/>
     </row>
-    <row r="105" spans="3:14">
+    <row r="105" spans="3:14" ht="15">
       <c r="C105" s="3">
         <v>113</v>
       </c>
@@ -7184,7 +7212,7 @@
       <c r="M122" s="3"/>
       <c r="N122" s="17"/>
     </row>
-    <row r="123" spans="3:14">
+    <row r="123" spans="3:14" ht="15">
       <c r="C123" s="3">
         <v>131</v>
       </c>
@@ -7298,7 +7326,7 @@
       <c r="M127" s="3"/>
       <c r="N127" s="17"/>
     </row>
-    <row r="128" spans="3:14" ht="16.5">
+    <row r="128" spans="3:14" ht="14.25">
       <c r="C128" s="3">
         <v>136</v>
       </c>
@@ -7398,7 +7426,7 @@
         <v>835</v>
       </c>
     </row>
-    <row r="132" spans="3:14" ht="16.5">
+    <row r="132" spans="3:14" ht="14.25">
       <c r="C132" s="3">
         <v>140</v>
       </c>
@@ -7477,7 +7505,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="N2:N134">
     <cfRule type="cellIs" dxfId="7" priority="21" stopIfTrue="1" operator="equal">
       <formula>"Fail"</formula>
@@ -7528,6 +7556,7 @@
     <hyperlink ref="H75" r:id="rId1" display="nform@tesitng.com; nformG2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" copies="0" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -7537,7 +7566,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="1:85">
       <c r="A1" t="s">
@@ -11446,7 +11475,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="1:1066">
       <c r="A1" t="s">
@@ -30503,13 +30532,13 @@
   <dimension ref="A1:B44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B1048576"/>
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="16.7109375" customWidth="1"/>
-    <col min="2" max="2" width="28.42578125" customWidth="1"/>
+    <col min="1" max="1" width="16.75" customWidth="1"/>
+    <col min="2" max="2" width="28.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -30747,6 +30776,7 @@
       <c r="B44" s="13"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/NformTester/NformTester/keywordscripts/TestScripts.xlsx
+++ b/NformTester/NformTester/keywordscripts/TestScripts.xlsx
@@ -1260,7 +1260,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7910" uniqueCount="881">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7924" uniqueCount="883">
   <si>
     <t>FormLogin_to_LiebertR_Nform</t>
   </si>
@@ -3932,6 +3932,14 @@
   <si>
     <t>Running Range</t>
     <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>"{CONTROL down}{Akey}{CONTROL up}"</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>25</t>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -4561,8 +4569,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O134"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4777,7 +4785,7 @@
         <v>803</v>
       </c>
       <c r="B7" s="4">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="C7" s="3">
         <v>6</v>
@@ -4807,7 +4815,9 @@
       <c r="A8" s="2" t="s">
         <v>880</v>
       </c>
-      <c r="B8" s="6"/>
+      <c r="B8" s="6" t="s">
+        <v>882</v>
+      </c>
       <c r="C8" s="3">
         <v>7</v>
       </c>
@@ -5309,11 +5319,21 @@
     <row r="25" spans="1:15">
       <c r="A25" s="13"/>
       <c r="B25" s="13"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="12"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
+      <c r="C25" s="3">
+        <v>24</v>
+      </c>
+      <c r="D25" s="23" t="s">
+        <v>830</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>620</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>621</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="H25" s="3"/>
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
@@ -5323,12 +5343,24 @@
       <c r="N25" s="17"/>
     </row>
     <row r="26" spans="1:15">
-      <c r="C26" s="3"/>
-      <c r="D26" s="12"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
+      <c r="C26" s="3">
+        <v>25</v>
+      </c>
+      <c r="D26" s="23" t="s">
+        <v>830</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>620</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>621</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>881</v>
+      </c>
       <c r="I26" s="3"/>
       <c r="J26" s="3"/>
       <c r="K26" s="3"/>
@@ -5337,11 +5369,21 @@
       <c r="N26" s="17"/>
     </row>
     <row r="27" spans="1:15">
-      <c r="C27" s="3"/>
-      <c r="D27" s="12"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
+      <c r="C27" s="3">
+        <v>26</v>
+      </c>
+      <c r="D27" s="23" t="s">
+        <v>830</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>620</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="H27" s="3"/>
       <c r="I27" s="3"/>
       <c r="J27" s="3"/>

--- a/NformTester/NformTester/keywordscripts/TestScripts.xlsx
+++ b/NformTester/NformTester/keywordscripts/TestScripts.xlsx
@@ -3938,7 +3938,7 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>25</t>
+    <t>1-3</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>

--- a/NformTester/NformTester/keywordscripts/TestScripts.xlsx
+++ b/NformTester/NformTester/keywordscripts/TestScripts.xlsx
@@ -1352,7 +1352,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8244" uniqueCount="936">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8173" uniqueCount="925">
   <si>
     <t>FormLogin_to_LiebertR_Nform</t>
   </si>
@@ -4088,27 +4088,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>F</t>
-  </si>
-  <si>
-    <t>SingleManual</t>
-  </si>
-  <si>
-    <t>$SNMPdevice_0$</t>
-  </si>
-  <si>
-    <t>$GXT_0_NAME$</t>
-  </si>
-  <si>
-    <t>"Description for GXT"</t>
-  </si>
-  <si>
-    <t>"Liebert GXT UPS/WebCard"</t>
-  </si>
-  <si>
-    <t>"SNMP"</t>
-  </si>
-  <si>
     <t>No. Rows</t>
   </si>
   <si>
@@ -4119,17 +4098,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1-3</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>Result</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>Enabled</t>
-  </si>
-  <si>
     <t>Exception / Error</t>
   </si>
   <si>
@@ -4139,15 +4111,9 @@
     <t>Ranorex Version</t>
   </si>
   <si>
-    <t>"action-one"</t>
-  </si>
-  <si>
     <t>Nform Viewer</t>
   </si>
   <si>
-    <t>"nform testing"</t>
-  </si>
-  <si>
     <t>Nform Server</t>
   </si>
   <si>
@@ -4160,35 +4126,39 @@
     <t>Managed device limit</t>
   </si>
   <si>
-    <t>"Run-command"</t>
-  </si>
-  <si>
     <t>Advanced Communications</t>
   </si>
   <si>
     <t>Advanced Notification</t>
   </si>
   <si>
-    <t>"C:\Nform\test.txt"</t>
-  </si>
-  <si>
     <t>Registration</t>
   </si>
   <si>
-    <t>"text"</t>
-  </si>
-  <si>
     <t>Windows</t>
   </si>
   <si>
-    <t>"2"</t>
-  </si>
-  <si>
     <t>.NET Framework</t>
   </si>
   <si>
-    <t>"{CONTROL down}{Akey}{CONTROL up}"</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <t>Text</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Equal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Current devices: 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Devices</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UPS_10.146.82.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -4401,21 +4371,7 @@
     <cellStyle name="常规 2" xfId="1"/>
     <cellStyle name="常规 2 2" xfId="2"/>
   </cellStyles>
-  <dxfs count="4">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <fill>
         <patternFill>
@@ -4720,10 +4676,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N27"/>
+  <dimension ref="A1:N28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4735,7 +4691,7 @@
     <col min="7" max="7" width="20.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="25.5">
+    <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
         <v>878</v>
       </c>
@@ -4899,61 +4855,51 @@
       <c r="C6" s="4">
         <v>5</v>
       </c>
-      <c r="D6" s="7" t="s">
-        <v>903</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>695</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>701</v>
-      </c>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4" t="s">
+      <c r="D6" s="10" t="s">
         <v>904</v>
       </c>
-      <c r="I6" s="4" t="s">
-        <v>905</v>
-      </c>
-      <c r="J6" s="4" t="s">
-        <v>906</v>
-      </c>
-      <c r="K6" s="4" t="s">
-        <v>907</v>
-      </c>
-      <c r="L6" s="4" t="s">
-        <v>908</v>
-      </c>
-      <c r="M6" s="4" t="s">
-        <v>909</v>
-      </c>
+      <c r="E6" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
       <c r="N6" s="6"/>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="2" t="s">
-        <v>910</v>
+        <v>903</v>
       </c>
       <c r="B7" s="3">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="C7" s="4">
         <v>6</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>911</v>
+        <v>904</v>
       </c>
       <c r="E7" s="11" t="s">
         <v>19</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>22</v>
+        <v>923</v>
       </c>
       <c r="G7" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="11"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
       <c r="K7" s="11"/>
       <c r="L7" s="11"/>
       <c r="M7" s="11"/>
@@ -4961,29 +4907,33 @@
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="2" t="s">
-        <v>912</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>913</v>
-      </c>
+        <v>905</v>
+      </c>
+      <c r="B8" s="8"/>
       <c r="C8" s="4">
         <v>7</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>911</v>
+        <v>904</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>19</v>
+        <v>695</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>80</v>
+        <v>699</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="11"/>
+        <v>7</v>
+      </c>
+      <c r="H8" s="11" t="s">
+        <v>920</v>
+      </c>
+      <c r="I8" s="11" t="s">
+        <v>921</v>
+      </c>
+      <c r="J8" s="11" t="s">
+        <v>922</v>
+      </c>
       <c r="K8" s="11"/>
       <c r="L8" s="11"/>
       <c r="M8" s="11"/>
@@ -4991,30 +4941,26 @@
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="2" t="s">
-        <v>914</v>
+        <v>906</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="4">
         <v>8</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>911</v>
-      </c>
-      <c r="E9" s="13" t="s">
-        <v>411</v>
+        <v>904</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>695</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="H9" s="13" t="s">
-        <v>915</v>
-      </c>
-      <c r="I9" s="11" t="b">
-        <v>1</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
       <c r="J9" s="11"/>
       <c r="K9" s="11"/>
       <c r="L9" s="11"/>
@@ -5023,27 +4969,35 @@
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="2" t="s">
-        <v>916</v>
+        <v>907</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>917</v>
+        <v>908</v>
       </c>
       <c r="C10" s="4">
         <v>9</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>899</v>
-      </c>
-      <c r="E10" s="13" t="s">
-        <v>874</v>
-      </c>
-      <c r="F10" s="11">
-        <v>5</v>
-      </c>
-      <c r="G10" s="11"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="11"/>
+        <v>904</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>633</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>263</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="H10" s="11" t="s">
+        <v>920</v>
+      </c>
+      <c r="I10" s="11" t="s">
+        <v>921</v>
+      </c>
+      <c r="J10" s="11" t="s">
+        <v>924</v>
+      </c>
       <c r="K10" s="11"/>
       <c r="L10" s="11"/>
       <c r="M10" s="11"/>
@@ -5052,23 +5006,13 @@
     <row r="11" spans="1:14">
       <c r="A11" s="15"/>
       <c r="B11" s="16"/>
-      <c r="C11" s="4">
-        <v>10</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>911</v>
-      </c>
-      <c r="E11" s="13" t="s">
-        <v>411</v>
-      </c>
-      <c r="F11" s="11" t="s">
-        <v>253</v>
-      </c>
-      <c r="G11" s="11" t="s">
-        <v>2</v>
-      </c>
+      <c r="C11" s="4"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
       <c r="H11" s="13"/>
-      <c r="I11" s="13"/>
+      <c r="I11" s="11"/>
       <c r="J11" s="11"/>
       <c r="K11" s="11"/>
       <c r="L11" s="11"/>
@@ -5077,28 +5021,16 @@
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="2" t="s">
-        <v>918</v>
+        <v>909</v>
       </c>
       <c r="B12" s="17"/>
-      <c r="C12" s="4">
-        <v>11</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>911</v>
-      </c>
-      <c r="E12" s="13" t="s">
-        <v>415</v>
-      </c>
-      <c r="F12" s="11" t="s">
-        <v>263</v>
-      </c>
-      <c r="G12" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="H12" s="13" t="s">
-        <v>919</v>
-      </c>
-      <c r="I12" s="11"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="13"/>
       <c r="J12" s="11"/>
       <c r="K12" s="11"/>
       <c r="L12" s="11"/>
@@ -5107,27 +5039,15 @@
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="18" t="s">
-        <v>920</v>
+        <v>910</v>
       </c>
       <c r="B13" s="19"/>
-      <c r="C13" s="4">
-        <v>12</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>911</v>
-      </c>
-      <c r="E13" s="13" t="s">
-        <v>415</v>
-      </c>
-      <c r="F13" s="11" t="s">
-        <v>262</v>
-      </c>
-      <c r="G13" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="H13" s="13" t="s">
-        <v>921</v>
-      </c>
+      <c r="C13" s="4"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="13"/>
       <c r="I13" s="11"/>
       <c r="J13" s="11"/>
       <c r="K13" s="11"/>
@@ -5137,24 +5057,14 @@
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="18" t="s">
-        <v>922</v>
+        <v>911</v>
       </c>
       <c r="B14" s="19"/>
-      <c r="C14" s="4">
-        <v>13</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>911</v>
-      </c>
-      <c r="E14" s="13" t="s">
-        <v>415</v>
-      </c>
-      <c r="F14" s="11" t="s">
-        <v>253</v>
-      </c>
-      <c r="G14" s="11" t="s">
-        <v>2</v>
-      </c>
+      <c r="C14" s="4"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
       <c r="H14" s="13"/>
       <c r="I14" s="11"/>
       <c r="J14" s="11"/>
@@ -5165,26 +5075,16 @@
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="18" t="s">
-        <v>923</v>
+        <v>912</v>
       </c>
       <c r="B15" s="19"/>
-      <c r="C15" s="4">
-        <v>14</v>
-      </c>
-      <c r="D15" s="10" t="s">
-        <v>911</v>
-      </c>
-      <c r="E15" s="13" t="s">
-        <v>421</v>
-      </c>
-      <c r="F15" s="11" t="s">
-        <v>387</v>
-      </c>
-      <c r="G15" s="11" t="s">
-        <v>2</v>
-      </c>
+      <c r="C15" s="4"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
       <c r="H15" s="13"/>
-      <c r="I15" s="13"/>
+      <c r="I15" s="11"/>
       <c r="J15" s="11"/>
       <c r="K15" s="11"/>
       <c r="L15" s="11"/>
@@ -5193,26 +5093,16 @@
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="18" t="s">
-        <v>924</v>
+        <v>913</v>
       </c>
       <c r="B16" s="19"/>
-      <c r="C16" s="4">
-        <v>15</v>
-      </c>
-      <c r="D16" s="10" t="s">
-        <v>911</v>
-      </c>
-      <c r="E16" s="13" t="s">
-        <v>421</v>
-      </c>
-      <c r="F16" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="G16" s="11" t="s">
-        <v>2</v>
-      </c>
+      <c r="C16" s="4"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
       <c r="H16" s="13"/>
-      <c r="I16" s="11"/>
+      <c r="I16" s="13"/>
       <c r="J16" s="11"/>
       <c r="K16" s="11"/>
       <c r="L16" s="11"/>
@@ -5221,28 +5111,16 @@
     </row>
     <row r="17" spans="1:14">
       <c r="A17" s="18" t="s">
-        <v>925</v>
+        <v>914</v>
       </c>
       <c r="B17" s="19"/>
-      <c r="C17" s="4">
-        <v>16</v>
-      </c>
-      <c r="D17" s="10" t="s">
-        <v>911</v>
-      </c>
-      <c r="E17" s="13" t="s">
-        <v>461</v>
-      </c>
-      <c r="F17" s="11" t="s">
-        <v>263</v>
-      </c>
-      <c r="G17" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="H17" s="13" t="s">
-        <v>926</v>
-      </c>
-      <c r="I17" s="13"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="11"/>
       <c r="J17" s="11"/>
       <c r="K17" s="11"/>
       <c r="L17" s="11"/>
@@ -5252,26 +5130,14 @@
     <row r="18" spans="1:14">
       <c r="A18" s="18"/>
       <c r="B18" s="19" t="s">
-        <v>927</v>
-      </c>
-      <c r="C18" s="4">
-        <v>17</v>
-      </c>
-      <c r="D18" s="10" t="s">
-        <v>911</v>
-      </c>
-      <c r="E18" s="13" t="s">
-        <v>461</v>
-      </c>
-      <c r="F18" s="11" t="s">
-        <v>262</v>
-      </c>
-      <c r="G18" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="H18" s="13" t="s">
-        <v>921</v>
-      </c>
+        <v>915</v>
+      </c>
+      <c r="C18" s="4"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="13"/>
       <c r="I18" s="13"/>
       <c r="J18" s="11"/>
       <c r="K18" s="11"/>
@@ -5282,26 +5148,14 @@
     <row r="19" spans="1:14">
       <c r="A19" s="18"/>
       <c r="B19" s="19" t="s">
-        <v>928</v>
-      </c>
-      <c r="C19" s="4">
-        <v>18</v>
-      </c>
-      <c r="D19" s="10" t="s">
-        <v>911</v>
-      </c>
-      <c r="E19" s="13" t="s">
-        <v>461</v>
-      </c>
-      <c r="F19" s="11" t="s">
-        <v>462</v>
-      </c>
-      <c r="G19" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="H19" s="13" t="s">
-        <v>929</v>
-      </c>
+        <v>916</v>
+      </c>
+      <c r="C19" s="4"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="13"/>
       <c r="I19" s="13"/>
       <c r="J19" s="11"/>
       <c r="K19" s="11"/>
@@ -5311,29 +5165,17 @@
     </row>
     <row r="20" spans="1:14">
       <c r="A20" s="18" t="s">
-        <v>930</v>
+        <v>917</v>
       </c>
       <c r="B20" s="19" t="s">
-        <v>917</v>
-      </c>
-      <c r="C20" s="4">
-        <v>19</v>
-      </c>
-      <c r="D20" s="10" t="s">
-        <v>911</v>
-      </c>
-      <c r="E20" s="13" t="s">
-        <v>461</v>
-      </c>
-      <c r="F20" s="11" t="s">
-        <v>463</v>
-      </c>
-      <c r="G20" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="H20" s="13" t="s">
-        <v>931</v>
-      </c>
+        <v>908</v>
+      </c>
+      <c r="C20" s="4"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="13"/>
       <c r="I20" s="13"/>
       <c r="J20" s="11"/>
       <c r="K20" s="11"/>
@@ -5343,27 +5185,15 @@
     </row>
     <row r="21" spans="1:14">
       <c r="A21" s="18" t="s">
-        <v>932</v>
+        <v>918</v>
       </c>
       <c r="B21" s="19"/>
-      <c r="C21" s="4">
-        <v>20</v>
-      </c>
-      <c r="D21" s="10" t="s">
-        <v>911</v>
-      </c>
-      <c r="E21" s="13" t="s">
-        <v>461</v>
-      </c>
-      <c r="F21" s="11" t="s">
-        <v>466</v>
-      </c>
-      <c r="G21" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="H21" s="13" t="s">
-        <v>933</v>
-      </c>
+      <c r="C21" s="4"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="13"/>
       <c r="I21" s="13"/>
       <c r="J21" s="11"/>
       <c r="K21" s="11"/>
@@ -5373,21 +5203,13 @@
     </row>
     <row r="22" spans="1:14">
       <c r="A22" s="18" t="s">
-        <v>934</v>
+        <v>919</v>
       </c>
       <c r="B22" s="19"/>
-      <c r="C22" s="4">
-        <v>21</v>
-      </c>
-      <c r="D22" s="10" t="s">
-        <v>899</v>
-      </c>
-      <c r="E22" s="13" t="s">
-        <v>874</v>
-      </c>
-      <c r="F22" s="11">
-        <v>2</v>
-      </c>
+      <c r="C22" s="4"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="11"/>
       <c r="G22" s="11"/>
       <c r="H22" s="13"/>
       <c r="I22" s="13"/>
@@ -5400,21 +5222,11 @@
     <row r="23" spans="1:14">
       <c r="A23" s="20"/>
       <c r="B23" s="20"/>
-      <c r="C23" s="4">
-        <v>22</v>
-      </c>
-      <c r="D23" s="10" t="s">
-        <v>911</v>
-      </c>
-      <c r="E23" s="13" t="s">
-        <v>461</v>
-      </c>
-      <c r="F23" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="G23" s="11" t="s">
-        <v>2</v>
-      </c>
+      <c r="C23" s="4"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
       <c r="H23" s="13"/>
       <c r="I23" s="13"/>
       <c r="J23" s="11"/>
@@ -5426,18 +5238,10 @@
     <row r="24" spans="1:14">
       <c r="A24" s="20"/>
       <c r="B24" s="20"/>
-      <c r="C24" s="4">
-        <v>23</v>
-      </c>
-      <c r="D24" s="10" t="s">
-        <v>899</v>
-      </c>
-      <c r="E24" s="13" t="s">
-        <v>874</v>
-      </c>
-      <c r="F24" s="11">
-        <v>2</v>
-      </c>
+      <c r="C24" s="4"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="11"/>
       <c r="G24" s="11"/>
       <c r="H24" s="13"/>
       <c r="I24" s="13"/>
@@ -5450,48 +5254,26 @@
     <row r="25" spans="1:14">
       <c r="A25" s="20"/>
       <c r="B25" s="20"/>
-      <c r="C25" s="4">
-        <v>24</v>
-      </c>
-      <c r="D25" s="10" t="s">
-        <v>911</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>695</v>
-      </c>
-      <c r="F25" s="4" t="s">
-        <v>696</v>
-      </c>
-      <c r="G25" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H25" s="4"/>
-      <c r="I25" s="4"/>
-      <c r="J25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="13"/>
+      <c r="I25" s="13"/>
+      <c r="J25" s="11"/>
       <c r="K25" s="4"/>
       <c r="L25" s="4"/>
       <c r="M25" s="4"/>
       <c r="N25" s="6"/>
     </row>
     <row r="26" spans="1:14">
-      <c r="C26" s="4">
-        <v>25</v>
-      </c>
-      <c r="D26" s="10" t="s">
-        <v>911</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>695</v>
-      </c>
-      <c r="F26" s="4" t="s">
-        <v>696</v>
-      </c>
-      <c r="G26" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H26" s="4" t="s">
-        <v>935</v>
-      </c>
+      <c r="C26" s="4"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
       <c r="I26" s="4"/>
       <c r="J26" s="4"/>
       <c r="K26" s="4"/>
@@ -5500,21 +5282,11 @@
       <c r="N26" s="6"/>
     </row>
     <row r="27" spans="1:14">
-      <c r="C27" s="4">
-        <v>26</v>
-      </c>
-      <c r="D27" s="10" t="s">
-        <v>911</v>
-      </c>
-      <c r="E27" s="4" t="s">
-        <v>695</v>
-      </c>
-      <c r="F27" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="G27" s="4" t="s">
-        <v>2</v>
-      </c>
+      <c r="C27" s="4"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
       <c r="H27" s="4"/>
       <c r="I27" s="4"/>
       <c r="J27" s="4"/>
@@ -5523,27 +5295,37 @@
       <c r="M27" s="4"/>
       <c r="N27" s="6"/>
     </row>
+    <row r="28" spans="1:14">
+      <c r="C28" s="4"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="4"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="N2:N27">
-    <cfRule type="cellIs" dxfId="3" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="1" stopIfTrue="1" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="2" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="2" stopIfTrue="1" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F27">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D4 D6:D28">
+      <formula1>"C,F,T,;"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F28">
       <formula1>OFFSET(INDIRECT($E2),0,0,COUNTA(INDIRECT(E2&amp;"Col")),1)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G27">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G28">
       <formula1>INDIRECT(SUBSTITUTE(E2&amp;F2," ",""))</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D4 D6:D27">
-      <formula1>"C,F,T,;"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E27">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E28">
       <formula1>Forms</formula1>
     </dataValidation>
   </dataValidations>

--- a/NformTester/NformTester/keywordscripts/TestScripts.xlsx
+++ b/NformTester/NformTester/keywordscripts/TestScripts.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16035" windowHeight="12720"/>
@@ -1352,7 +1352,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8173" uniqueCount="925">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8179" uniqueCount="928">
   <si>
     <t>FormLogin_to_LiebertR_Nform</t>
   </si>
@@ -4032,10 +4032,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>C:\\Nform\\bin\\NformViewer.exe</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>;Login.</t>
   </si>
   <si>
@@ -4159,6 +4155,21 @@
   <si>
     <t>UPS_10.146.82.2</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LaunchApplication</t>
+  </si>
+  <si>
+    <t>abc</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CloseApplication</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$Sys_TestObject_NformViewer$</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -4676,10 +4687,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N28"/>
+  <dimension ref="A1:N30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4739,14 +4750,12 @@
       <c r="A2" s="2" t="s">
         <v>887</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>888</v>
-      </c>
+      <c r="B2" s="3"/>
       <c r="C2" s="4">
         <v>1</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
@@ -4761,33 +4770,29 @@
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="2" t="s">
+        <v>889</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>890</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>891</v>
-      </c>
       <c r="C3" s="4">
         <v>2</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>892</v>
+        <v>898</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>0</v>
+        <v>924</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>893</v>
-      </c>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4" t="s">
-        <v>894</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>895</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>896</v>
-      </c>
+        <v>927</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>925</v>
+      </c>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
       <c r="K3" s="4"/>
       <c r="L3" s="4"/>
       <c r="M3" s="4"/>
@@ -4795,35 +4800,41 @@
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="2" t="s">
+        <v>896</v>
+      </c>
+      <c r="B4" s="8" t="s">
         <v>897</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>898</v>
       </c>
       <c r="C4" s="4">
         <v>3</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>899</v>
+        <v>891</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>874</v>
-      </c>
-      <c r="F4" s="4">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>892</v>
       </c>
       <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
+      <c r="H4" s="4" t="s">
+        <v>893</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>894</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>895</v>
+      </c>
       <c r="K4" s="4"/>
       <c r="L4" s="4"/>
       <c r="M4" s="4"/>
       <c r="N4" s="6"/>
     </row>
-    <row r="5" spans="1:14" ht="15">
+    <row r="5" spans="1:14">
       <c r="A5" s="2" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="B5" s="9">
         <v>40864</v>
@@ -4831,11 +4842,15 @@
       <c r="C5" s="4">
         <v>4</v>
       </c>
-      <c r="D5" s="5" t="s">
-        <v>901</v>
-      </c>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
+      <c r="D5" s="7" t="s">
+        <v>898</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>874</v>
+      </c>
+      <c r="F5" s="4">
+        <v>4</v>
+      </c>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
@@ -4847,7 +4862,7 @@
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="2" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="B6" s="9">
         <v>41045</v>
@@ -4855,17 +4870,15 @@
       <c r="C6" s="4">
         <v>5</v>
       </c>
-      <c r="D6" s="10" t="s">
-        <v>904</v>
-      </c>
-      <c r="E6" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="G6" s="11" t="s">
-        <v>2</v>
+      <c r="D6" s="7" t="s">
+        <v>898</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>926</v>
+      </c>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4" t="s">
+        <v>925</v>
       </c>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
@@ -4875,93 +4888,81 @@
       <c r="M6" s="4"/>
       <c r="N6" s="6"/>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:14" ht="15">
       <c r="A7" s="2" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="B7" s="3">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C7" s="4">
-        <v>6</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>904</v>
-      </c>
-      <c r="E7" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="F7" s="11" t="s">
-        <v>923</v>
-      </c>
-      <c r="G7" s="11" t="s">
-        <v>2</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>900</v>
+      </c>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
-      <c r="K7" s="11"/>
-      <c r="L7" s="11"/>
-      <c r="M7" s="11"/>
-      <c r="N7" s="12"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="6"/>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="2" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="B8" s="8"/>
       <c r="C8" s="4">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>695</v>
+        <v>19</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>699</v>
+        <v>22</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="H8" s="11" t="s">
-        <v>920</v>
-      </c>
-      <c r="I8" s="11" t="s">
-        <v>921</v>
-      </c>
-      <c r="J8" s="11" t="s">
-        <v>922</v>
-      </c>
-      <c r="K8" s="11"/>
-      <c r="L8" s="11"/>
-      <c r="M8" s="11"/>
-      <c r="N8" s="12"/>
+        <v>2</v>
+      </c>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="6"/>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="2" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="4">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>695</v>
+        <v>19</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>244</v>
+        <v>922</v>
       </c>
       <c r="G9" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="11"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
       <c r="K9" s="11"/>
       <c r="L9" s="11"/>
       <c r="M9" s="11"/>
@@ -4969,34 +4970,34 @@
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="2" t="s">
+        <v>906</v>
+      </c>
+      <c r="B10" s="14" t="s">
         <v>907</v>
       </c>
-      <c r="B10" s="14" t="s">
-        <v>908</v>
-      </c>
       <c r="C10" s="4">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>633</v>
+        <v>695</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>263</v>
+        <v>699</v>
       </c>
       <c r="G10" s="11" t="s">
         <v>7</v>
       </c>
       <c r="H10" s="11" t="s">
+        <v>919</v>
+      </c>
+      <c r="I10" s="11" t="s">
         <v>920</v>
       </c>
-      <c r="I10" s="11" t="s">
+      <c r="J10" s="11" t="s">
         <v>921</v>
-      </c>
-      <c r="J10" s="11" t="s">
-        <v>924</v>
       </c>
       <c r="K10" s="11"/>
       <c r="L10" s="11"/>
@@ -5006,12 +5007,22 @@
     <row r="11" spans="1:14">
       <c r="A11" s="15"/>
       <c r="B11" s="16"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="13"/>
+      <c r="C11" s="4">
+        <v>8</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>903</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>695</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="H11" s="11"/>
       <c r="I11" s="11"/>
       <c r="J11" s="11"/>
       <c r="K11" s="11"/>
@@ -5021,17 +5032,33 @@
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="2" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="B12" s="17"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="13"/>
-      <c r="J12" s="11"/>
+      <c r="C12" s="4">
+        <v>9</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>903</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>633</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>263</v>
+      </c>
+      <c r="G12" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="H12" s="11" t="s">
+        <v>919</v>
+      </c>
+      <c r="I12" s="11" t="s">
+        <v>920</v>
+      </c>
+      <c r="J12" s="11" t="s">
+        <v>923</v>
+      </c>
       <c r="K12" s="11"/>
       <c r="L12" s="11"/>
       <c r="M12" s="11"/>
@@ -5039,7 +5066,7 @@
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="18" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="B13" s="19"/>
       <c r="C13" s="4"/>
@@ -5057,7 +5084,7 @@
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="18" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="B14" s="19"/>
       <c r="C14" s="4"/>
@@ -5066,7 +5093,7 @@
       <c r="F14" s="11"/>
       <c r="G14" s="11"/>
       <c r="H14" s="13"/>
-      <c r="I14" s="11"/>
+      <c r="I14" s="13"/>
       <c r="J14" s="11"/>
       <c r="K14" s="11"/>
       <c r="L14" s="11"/>
@@ -5075,7 +5102,7 @@
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="18" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="B15" s="19"/>
       <c r="C15" s="4"/>
@@ -5093,7 +5120,7 @@
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="18" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="B16" s="19"/>
       <c r="C16" s="4"/>
@@ -5102,7 +5129,7 @@
       <c r="F16" s="11"/>
       <c r="G16" s="11"/>
       <c r="H16" s="13"/>
-      <c r="I16" s="13"/>
+      <c r="I16" s="11"/>
       <c r="J16" s="11"/>
       <c r="K16" s="11"/>
       <c r="L16" s="11"/>
@@ -5111,7 +5138,7 @@
     </row>
     <row r="17" spans="1:14">
       <c r="A17" s="18" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="B17" s="19"/>
       <c r="C17" s="4"/>
@@ -5130,7 +5157,7 @@
     <row r="18" spans="1:14">
       <c r="A18" s="18"/>
       <c r="B18" s="19" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="C18" s="4"/>
       <c r="D18" s="10"/>
@@ -5148,7 +5175,7 @@
     <row r="19" spans="1:14">
       <c r="A19" s="18"/>
       <c r="B19" s="19" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="C19" s="4"/>
       <c r="D19" s="10"/>
@@ -5156,7 +5183,7 @@
       <c r="F19" s="11"/>
       <c r="G19" s="11"/>
       <c r="H19" s="13"/>
-      <c r="I19" s="13"/>
+      <c r="I19" s="11"/>
       <c r="J19" s="11"/>
       <c r="K19" s="11"/>
       <c r="L19" s="11"/>
@@ -5165,10 +5192,10 @@
     </row>
     <row r="20" spans="1:14">
       <c r="A20" s="18" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="B20" s="19" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="C20" s="4"/>
       <c r="D20" s="10"/>
@@ -5185,7 +5212,7 @@
     </row>
     <row r="21" spans="1:14">
       <c r="A21" s="18" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="B21" s="19"/>
       <c r="C21" s="4"/>
@@ -5203,7 +5230,7 @@
     </row>
     <row r="22" spans="1:14">
       <c r="A22" s="18" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="B22" s="19"/>
       <c r="C22" s="4"/>
@@ -5262,34 +5289,34 @@
       <c r="H25" s="13"/>
       <c r="I25" s="13"/>
       <c r="J25" s="11"/>
-      <c r="K25" s="4"/>
-      <c r="L25" s="4"/>
-      <c r="M25" s="4"/>
-      <c r="N25" s="6"/>
+      <c r="K25" s="11"/>
+      <c r="L25" s="11"/>
+      <c r="M25" s="11"/>
+      <c r="N25" s="12"/>
     </row>
     <row r="26" spans="1:14">
       <c r="C26" s="4"/>
       <c r="D26" s="10"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
-      <c r="H26" s="4"/>
-      <c r="I26" s="4"/>
-      <c r="J26" s="4"/>
-      <c r="K26" s="4"/>
-      <c r="L26" s="4"/>
-      <c r="M26" s="4"/>
-      <c r="N26" s="6"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="13"/>
+      <c r="I26" s="13"/>
+      <c r="J26" s="11"/>
+      <c r="K26" s="11"/>
+      <c r="L26" s="11"/>
+      <c r="M26" s="11"/>
+      <c r="N26" s="12"/>
     </row>
     <row r="27" spans="1:14">
       <c r="C27" s="4"/>
       <c r="D27" s="10"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
-      <c r="H27" s="4"/>
-      <c r="I27" s="4"/>
-      <c r="J27" s="4"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="13"/>
+      <c r="I27" s="13"/>
+      <c r="J27" s="11"/>
       <c r="K27" s="4"/>
       <c r="L27" s="4"/>
       <c r="M27" s="4"/>
@@ -5304,10 +5331,38 @@
       <c r="H28" s="4"/>
       <c r="I28" s="4"/>
       <c r="J28" s="4"/>
+      <c r="K28" s="4"/>
+      <c r="L28" s="4"/>
+      <c r="M28" s="4"/>
+      <c r="N28" s="6"/>
+    </row>
+    <row r="29" spans="1:14">
+      <c r="C29" s="4"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="4"/>
+      <c r="J29" s="4"/>
+      <c r="K29" s="4"/>
+      <c r="L29" s="4"/>
+      <c r="M29" s="4"/>
+      <c r="N29" s="6"/>
+    </row>
+    <row r="30" spans="1:14">
+      <c r="C30" s="4"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="4"/>
+      <c r="J30" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="N2:N27">
+  <conditionalFormatting sqref="N2:N29">
     <cfRule type="cellIs" dxfId="1" priority="1" stopIfTrue="1" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
@@ -5316,16 +5371,16 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D4 D6:D28">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D8:D30 D3:D6">
       <formula1>"C,F,T,;"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F28">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2 G4:G5 G7:G30">
+      <formula1>INDIRECT(SUBSTITUTE(E2&amp;F2," ",""))</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2 F4:F30">
       <formula1>OFFSET(INDIRECT($E2),0,0,COUNTA(INDIRECT(E2&amp;"Col")),1)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G28">
-      <formula1>INDIRECT(SUBSTITUTE(E2&amp;F2," ",""))</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E28">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E30">
       <formula1>Forms</formula1>
     </dataValidation>
   </dataValidations>
